--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43884</v>
+      </c>
+      <c r="E7" s="2">
         <v>43793</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43702</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43611</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43520</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43429</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43338</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43247</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43156</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43065</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42974</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42883</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1506100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1568600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1447100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1312900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1434500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1591900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1394200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1245700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1343700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1465800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1268400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1067900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>666800</v>
+      </c>
+      <c r="E9" s="3">
         <v>717200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>680300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>612500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>651700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>744400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>652600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>574900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>605600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>682600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>611800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>509500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>839300</v>
+      </c>
+      <c r="E10" s="3">
         <v>851400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>766800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>782900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>847500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>741600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>670800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>738100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>783200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>656600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>558400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>24900</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>22800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1327300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1437000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1275900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1274900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1233500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1463100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1234700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1168500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1169600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1315900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1122100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1028000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E18" s="3">
         <v>131600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>171200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>201000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>128800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>159500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>77200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>174100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>149900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>146300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E21" s="3">
         <v>170200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>198400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>71400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>227800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>173100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>183000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>122100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>197300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>187000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>161400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E22" s="3">
         <v>18300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E23" s="3">
         <v>118200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>151600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>181700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>135400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>139900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>75700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>149000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>117100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E24" s="3">
         <v>22400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E26" s="3">
         <v>95800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>124200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>146500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>123200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>77000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>117400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>117200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>89500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E27" s="3">
         <v>95300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>124500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>146600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>123700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>74900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>117000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>115800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>88000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1530,20 +1591,20 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>6400</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E33" s="3">
         <v>95300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>124500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>146600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>97100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>130100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>74900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>115800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>88000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E35" s="3">
         <v>95300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>124500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>146600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>97100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>130100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>74900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>115800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>88000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43884</v>
+      </c>
+      <c r="E38" s="2">
         <v>43793</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43702</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43611</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43520</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43429</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43338</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43247</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43156</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43065</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42974</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42883</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,66 +1966,70 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>873600</v>
+      </c>
+      <c r="E41" s="3">
         <v>934200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>863800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>860900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>621900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>713100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>612500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>698700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>590200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>633600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>491300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>437500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E42" s="3">
         <v>80700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>80200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>79700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>100000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1947,8 +2037,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1962,172 +2052,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E43" s="3">
         <v>782800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>722000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>574400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>633500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>534200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>487200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>342300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>428500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>485500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>446700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>309400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>854700</v>
+      </c>
+      <c r="E44" s="3">
         <v>884200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>935600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>895300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>914300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>883800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>938300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>842600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>826400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>759400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>826100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>780600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>222800</v>
+      </c>
+      <c r="E45" s="3">
         <v>188200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>212100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>196800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>177500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>157000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>158000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>120700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>122800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>114100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2745000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2870200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2813700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2607100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2447300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2288100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2196000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2004400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1983100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1997200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1886900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1641600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1487200</v>
+      </c>
+      <c r="E48" s="3">
         <v>529600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>498900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>480500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>463800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>460600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>420000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>413200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>415000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>424500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>388700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>390500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>310300</v>
+      </c>
+      <c r="E49" s="3">
         <v>278600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>278400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>278500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>278900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>279100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>279300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>280100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>281600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>280200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>280100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>278900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>572800</v>
+      </c>
+      <c r="E52" s="3">
         <v>554100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>548000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>543200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>518300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>514900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>522300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>522400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>538700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>655900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>666300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>644200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5115200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4232400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4139000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3909400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3708400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3542700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3417700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3220100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3218300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3357800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3222000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2955200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>304200</v>
+      </c>
+      <c r="E57" s="3">
         <v>360300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>357700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>339500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>329900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>351300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>361700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>328800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>305200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>289500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>274500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E58" s="3">
         <v>7600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>31900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>35800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>968000</v>
+      </c>
+      <c r="E59" s="3">
         <v>799300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>756700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>851000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>668900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>644500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>551800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>579700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>551100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>529500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>427500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1291500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1167200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1186000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1107700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1204400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1052200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1042000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>903700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>909800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>879100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>863200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>733600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>994400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1006700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1007000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1011100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1017700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1020200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1041800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1050400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1078700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1055400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1051200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1022300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1234500</v>
+      </c>
+      <c r="E62" s="3">
         <v>486900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>477600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>469300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>477300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>503600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>454600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>483500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>513200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>594000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>592400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>591500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3520400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2668900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2678300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2595900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2706700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2583400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2545800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2445700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2507800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2533900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2510800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2349800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1445200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1310500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1219100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1094700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1094600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1084300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1060200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>992400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>949300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1100900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1029300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>942400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1594800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1563500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1460700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1313500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1001600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>959300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>871900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>774400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>710500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>823900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>711100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>605400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43884</v>
+      </c>
+      <c r="E80" s="2">
         <v>43793</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43702</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43611</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43520</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43429</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43338</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43247</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43156</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43065</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42974</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42883</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E81" s="3">
         <v>95300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>124500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>146600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>97100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>130100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>74900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>115800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>88000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E83" s="3">
         <v>33600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>28600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>197900</v>
+      </c>
+      <c r="E89" s="3">
         <v>206700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>215600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>161400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>231500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>77400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>168000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-51100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-80200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-58900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-55000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-45000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-45000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-35000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-91800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>198800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-67700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-73900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-39300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-70000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="E102" s="3">
         <v>70500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>238900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-91200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-86200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>108500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-43400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>142300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>53800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>68900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43975</v>
+      </c>
+      <c r="E7" s="2">
         <v>43884</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43793</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43702</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43611</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43520</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43429</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43338</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43247</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43156</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43065</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42974</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42883</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>497500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1506100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1568600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1447100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1312900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1434500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1591900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1394200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1245700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1343700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1465800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1268400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1067900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>327900</v>
+      </c>
+      <c r="E9" s="3">
         <v>666800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>717200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>680300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>612500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>651700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>744400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>652600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>574900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>605600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>682600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>611800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>509500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E10" s="3">
         <v>839300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>851400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>766800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>782900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>847500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>741600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>670800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>738100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>783200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>656600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>558400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>24900</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>22800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>945800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1327300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1437000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1275900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1274900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1233500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1463100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1234700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1168500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1169600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1315900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1122100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1028000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-448300</v>
+      </c>
+      <c r="E18" s="3">
         <v>178800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>131600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>171200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>201000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>128800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>159500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>174100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>149900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>146300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-411900</v>
+      </c>
+      <c r="E21" s="3">
         <v>217500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>170200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>198400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>71400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>227800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>173100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>183000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>122100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>197300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>187000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>161400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E22" s="3">
         <v>16700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-458200</v>
+      </c>
+      <c r="E23" s="3">
         <v>164800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>118200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>151600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>181700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>135400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>139900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>149000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>139000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>117100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="E24" s="3">
         <v>12100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-13800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-363500</v>
+      </c>
+      <c r="E26" s="3">
         <v>152700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>95800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>124200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>146500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>123200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>117400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>117200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>89500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-363500</v>
+      </c>
+      <c r="E27" s="3">
         <v>152700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>95300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>124500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>146600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>123700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>117000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>115800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>88000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,20 +1655,20 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>6400</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-363500</v>
+      </c>
+      <c r="E33" s="3">
         <v>152700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>95300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>124500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>146600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>97100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>130100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>115800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>88000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-363500</v>
+      </c>
+      <c r="E35" s="3">
         <v>152700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>95300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>124500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>146600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>97100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>130100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>115800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>88000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43975</v>
+      </c>
+      <c r="E38" s="2">
         <v>43884</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43793</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43702</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43611</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43520</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43429</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43338</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43247</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43156</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43065</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42974</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42883</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,72 +2053,76 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1448200</v>
+      </c>
+      <c r="E41" s="3">
         <v>873600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>934200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>863800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>860900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>621900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>713100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>612500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>698700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>590200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>633600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>491300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>437500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E42" s="3">
         <v>84000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>80700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>80200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>79700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>100000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2040,8 +2130,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>333600</v>
+      </c>
+      <c r="E43" s="3">
         <v>710000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>782800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>722000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>574400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>633500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>534200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>487200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>342300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>428500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>485500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>446700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>309400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>986200</v>
+      </c>
+      <c r="E44" s="3">
         <v>854700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>884200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>935600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>895300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>914300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>883800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>938300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>842600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>826400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>759400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>826100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>780600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E45" s="3">
         <v>222800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>188200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>212100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>196800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>177500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>157000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>158000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>120700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>137900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>118700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>122800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>114100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3052400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2745000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2870200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2813700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2607100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2447300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2288100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2196000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2004400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1983100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1997200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1886900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1641600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1421000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1487200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>529600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>498900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>480500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>463800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>460600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>420000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>413200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>415000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>424500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>388700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>390500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E49" s="3">
         <v>310300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>278600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>278400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>278500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>278900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>279100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>279300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>280100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>281600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>280200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>280100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>278900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>705600</v>
+      </c>
+      <c r="E52" s="3">
         <v>572800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>554100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>548000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>543200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>518300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>514900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>522300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>522400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>538700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>655900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>666300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>644200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5488000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5115200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4232400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4139000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3909400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3708400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3542700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3417700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3220100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3218300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3357800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3222000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2955200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>284400</v>
+      </c>
+      <c r="E57" s="3">
         <v>304200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>360300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>357700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>339500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>329900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>351300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>361700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>328800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>305200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>289500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>274500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>307900</v>
+      </c>
+      <c r="E58" s="3">
         <v>19300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>31900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>35800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>38500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000100</v>
+      </c>
+      <c r="E59" s="3">
         <v>968000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>799300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>756700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>851000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>668900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>644500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>551800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>579700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>551100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>529500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>427500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1592400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1291500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1167200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1186000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1107700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1204400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1052200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1042000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>903700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>909800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>879100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>863200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>733600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="E61" s="3">
         <v>994400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1006700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1007000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1011100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1017700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1020200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1041800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1050400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1078700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1055400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1051200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1022300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1231400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1234500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>486900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>477600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>469300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>477300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>503600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>454600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>483500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>513200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>594000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>592400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>591500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4322800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3520400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2668900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2678300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2595900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2706700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2583400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2545800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2445700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2507800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2533900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2510800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2349800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1030500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1445200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1310500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1219100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1094700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1094600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1084300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1060200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>992400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>949300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1100900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1029300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>942400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1165200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1594800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1563500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1460700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1313500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1001600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>959300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>871900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>774400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>710500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>823900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>711100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>605400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43975</v>
+      </c>
+      <c r="E80" s="2">
         <v>43884</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43793</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43702</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43611</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43520</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43429</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43338</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43247</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43156</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43065</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42974</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42883</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-363500</v>
+      </c>
+      <c r="E81" s="3">
         <v>152700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>95300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>124500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>146600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>97100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>130100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>115800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>88000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E83" s="3">
         <v>36000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-156500</v>
+      </c>
+      <c r="E89" s="3">
         <v>197900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>206700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>43700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>106000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>55800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>215600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>66200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>231500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>77400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>168000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-119300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-63000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-80200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-31900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-58900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-55000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-45000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-45000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-35000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>727600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-138000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-91800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>198800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-67700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-73900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-39300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-70000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>575000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-60700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>70500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>238900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-91200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-86200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>108500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-43400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>142300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>53800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>68900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44066</v>
+      </c>
+      <c r="E7" s="2">
         <v>43975</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43884</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43793</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43702</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43611</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43520</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43429</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43338</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43247</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43156</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43065</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42974</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42883</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1063100</v>
+      </c>
+      <c r="E8" s="3">
         <v>497500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1506100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1568600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1447100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1312900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1434500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1591900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1394200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1245700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1343700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1465800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1268400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1067900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>485700</v>
+      </c>
+      <c r="E9" s="3">
         <v>327900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>666800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>717200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>680300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>612500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>651700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>744400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>652600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>574900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>605600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>682600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>611800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>509500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>577400</v>
+      </c>
+      <c r="E10" s="3">
         <v>169600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>839300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>851400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>766800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>782900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>847500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>741600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>670800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>738100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>783200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>656600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>558400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E14" s="3">
         <v>155400</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>24900</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>22800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>970800</v>
+      </c>
+      <c r="E17" s="3">
         <v>945800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1327300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1437000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1275900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1274900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1233500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1463100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1234700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1168500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1169600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1315900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1122100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1028000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-448300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>178800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>131600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>171200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>201000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>128800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>159500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>174100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>149900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>146300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-411900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>217500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>170200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>198400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>71400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>227800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>173100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>122100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>197300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>187000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>161400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E22" s="3">
         <v>11200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-458200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>164800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>118200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>151600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>181700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>135400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>149000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>139000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>117100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-94600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-363500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>152700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>95800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>124200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>146500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>123200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>77000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>117400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>117200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>89500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-363500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>152700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>95300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>124500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>146600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>123700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>74900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>117000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>115800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>88000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,20 +1719,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>6400</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-363500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>152700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>95300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>124500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>146600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>97100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>130100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>115800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>88000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-363500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>152700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>95300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>124500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>146600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>97100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>130100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>115800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>88000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44066</v>
+      </c>
+      <c r="E38" s="2">
         <v>43975</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43884</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43793</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43702</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43611</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43520</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43429</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43338</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43247</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43156</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43065</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42974</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42883</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,78 +2140,82 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1448200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>873600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>934200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>863800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>860900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>621900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>713100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>612500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>698700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>590200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>633600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>491300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>437500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E42" s="3">
         <v>76100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>84000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>80700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>80200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>79700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>100000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2133,8 +2223,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>543300</v>
+      </c>
+      <c r="E43" s="3">
         <v>333600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>710000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>782800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>722000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>574400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>633500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>534200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>487200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>342300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>428500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>485500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>446700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>309400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>944300</v>
+      </c>
+      <c r="E44" s="3">
         <v>986200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>854700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>884200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>935600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>895300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>914300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>883800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>938300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>842600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>826400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>759400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>826100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>780600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E45" s="3">
         <v>208200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>222800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>188200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>212100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>196800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>177500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>157000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>158000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>120700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>137900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>122800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>114100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3081900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3052400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2745000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2870200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2813700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2607100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2447300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2288100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2196000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2004400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1983100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1997200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1886900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1641600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1433400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1421000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1487200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>529600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>498900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>480500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>463800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>460600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>420000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>413200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>415000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>424500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>388700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>390500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>312300</v>
+      </c>
+      <c r="E49" s="3">
         <v>309000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>310300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>278600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>278400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>278500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>278900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>279100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>279300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>280100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>281600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>280200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>280100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>278900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>719700</v>
+      </c>
+      <c r="E52" s="3">
         <v>705600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>572800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>554100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>548000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>543200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>518300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>514900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>522300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>522400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>538700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>655900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>666300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>644200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5547300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5488000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5115200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4232400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4139000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3909400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3708400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3542700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3417700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3220100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3218300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3357800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3222000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2955200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>461500</v>
+      </c>
+      <c r="E57" s="3">
         <v>284400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>304200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>360300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>357700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>339500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>329900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>351300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>361700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>328800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>305200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>289500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>274500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E58" s="3">
         <v>307900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>35800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1088700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>968000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>799300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>756700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>851000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>668900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>644500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>551800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>579700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>551100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>529500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>427500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1574200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1592400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1291500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1167200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1186000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1107700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1204400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1052200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1042000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>903700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>909800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>879100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>863200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>733600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1543300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1499000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>994400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1006700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1007000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1011100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1017700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1020200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1041800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1050400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1078700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1055400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1051200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1022300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1238500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1231400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1234500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>486900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>477600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>469300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>477300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>503600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>454600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>483500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>513200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>594000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>592400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>591500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4356000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4322800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3520400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2668900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2678300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2595900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2706700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2583400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2545800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2445700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2507800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2533900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2510800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2349800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1057400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1030500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1445200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1310500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1219100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1094700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1094600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1084300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1060200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>992400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>949300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1100900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1029300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>942400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1191300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1165200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1594800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1563500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1460700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1313500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1001600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>959300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>871900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>774400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>710500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>823900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>711100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>605400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44066</v>
+      </c>
+      <c r="E80" s="2">
         <v>43975</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43884</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43793</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43702</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43611</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43520</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43429</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43338</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43247</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43156</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43065</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42974</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42883</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-363500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>152700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>95300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>124500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>146600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>97100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>130100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>115800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>88000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E83" s="3">
         <v>35000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>36000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-156500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>197900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>206700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>106000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>215600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>161400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>231500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>77400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>168000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E94" s="3">
         <v>11700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-119300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-63000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-80200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-31700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-31900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-58900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-55000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-45000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-45000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-35000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-287100</v>
+      </c>
+      <c r="E100" s="3">
         <v>727600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-138000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-91800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>198800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-67700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-73900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-39300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E102" s="3">
         <v>575000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-60700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>70500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>238900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-91200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-86200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>108500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-43400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>142300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>53800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>68900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44164</v>
+      </c>
+      <c r="E7" s="2">
         <v>44066</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43975</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43884</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43793</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43702</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43611</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43520</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43429</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43338</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43247</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43156</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43065</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42974</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42883</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1385900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1063100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>497500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1506100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1568600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1447100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1312900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1434500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1591900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1394200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1245700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1343700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1465800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1268400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1067900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>619300</v>
+      </c>
+      <c r="E9" s="3">
         <v>485700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>327900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>666800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>717200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>680300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>612500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>651700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>744400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>652600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>574900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>605600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>682600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>611800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>509500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>766600</v>
+      </c>
+      <c r="E10" s="3">
         <v>577400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>169600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>839300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>851400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>766800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>782900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>847500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>741600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>670800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>738100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>783200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>656600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>558400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>155400</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>24900</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>22800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1308600</v>
+      </c>
+      <c r="E17" s="3">
         <v>970800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>945800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1327300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1437000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1275900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1274900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1233500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1463100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1234700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1168500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1169600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1315900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1122100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1028000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E18" s="3">
         <v>92300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-448300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>178800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>131600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>171200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>201000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>159500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>174100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>149900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>146300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E21" s="3">
         <v>114000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-411900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>217500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>170200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>198400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>71400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>227800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>173100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>122100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>197300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>187000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>161400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E22" s="3">
         <v>28400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E23" s="3">
         <v>51600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-458200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>164800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>118200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>151600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>181700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>135400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>149000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>139000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>117100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>24600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-94600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-13800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E26" s="3">
         <v>27000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-363500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>152700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>95800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>124200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>146500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>123200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>77000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>117400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>117200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>89500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E27" s="3">
         <v>27000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-363500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>152700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>95300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>124500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>146600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>123700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>74900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>117000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>115800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>88000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,20 +1782,20 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>6400</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>12300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E33" s="3">
         <v>27000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-363500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>152700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>95300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>124500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>146600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>97100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>130100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>115800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>88000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E35" s="3">
         <v>27000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-363500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>152700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>95300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>124500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>146600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>97100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>130100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>115800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>88000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44164</v>
+      </c>
+      <c r="E38" s="2">
         <v>44066</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43975</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43884</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43793</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43702</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43611</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43520</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43429</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43338</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43247</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43156</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43065</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42974</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42883</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,84 +2226,88 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1497200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1353000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1448200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>873600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>934200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>863800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>860900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>621900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>713100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>612500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>698700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>590200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>633600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>491300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>437500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E42" s="3">
         <v>72300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>76100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>84000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>80700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>80200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>79700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>100000</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2226,8 +2315,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2241,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>540200</v>
+      </c>
+      <c r="E43" s="3">
         <v>543300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>333600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>710000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>782800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>722000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>574400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>633500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>534200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>487200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>342300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>428500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>485500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>446700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>309400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>817700</v>
+      </c>
+      <c r="E44" s="3">
         <v>944300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>986200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>854700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>884200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>935600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>895300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>914300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>883800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>938300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>842600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>826400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>759400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>826100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>780600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>174600</v>
+      </c>
+      <c r="E45" s="3">
         <v>169000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>208200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>222800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>188200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>212100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>196800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>177500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>157000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>158000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>120700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>137900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>122800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>114100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3126200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3081900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3052400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2745000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2870200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2813700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2607100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2447300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2288100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2196000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2004400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1983100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1997200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1886900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1641600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1443300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1433400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1421000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1487200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>529600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>498900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>480500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>463800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>460600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>420000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>413200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>415000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>424500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>388700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>390500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E49" s="3">
         <v>312300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>309000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>310300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>278600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>278400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>278500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>278900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>279100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>279300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>280100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>281600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>280200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>280100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>278900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>759500</v>
+      </c>
+      <c r="E52" s="3">
         <v>719700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>705600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>572800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>554100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>548000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>543200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>518300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>514900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>522300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>522400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>538700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>655900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>666300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>644200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5641200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5547300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5488000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5115200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4232400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4139000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3909400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3708400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3542700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3417700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3220100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3218300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3357800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3222000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2955200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>375500</v>
+      </c>
+      <c r="E57" s="3">
         <v>461500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>284400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>304200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>360300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>357700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>339500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>329900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>351300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>361700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>328800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>305200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>289500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>274500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E58" s="3">
         <v>23900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>307900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>35800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1155800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1088700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>968000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>799300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>756700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>851000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>668900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>644500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>551800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>579700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>551100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>529500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>427500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1548900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1574200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1592400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1291500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1167200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1186000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1107700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1204400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1052200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1042000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>903700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>909800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>879100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>863200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>733600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1546700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1543300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1499000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>994400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1006700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1007000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1011100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1017700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1020200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1041800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1050400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1078700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1055400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1051200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1022300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1246200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1238500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1231400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1234500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>486900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>477600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>469300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>477300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>503600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>454600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>483500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>513200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>594000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>592400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>591500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4341800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4356000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4322800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3520400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2668900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2678300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2595900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2706700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2583400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2545800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2445700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2507800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2533900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2510800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2349800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1114300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1057400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1030500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1445200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1310500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1219100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1094700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1094600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1084300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1060200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>992400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>949300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1100900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1029300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>942400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1299500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1191300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1165200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1594800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1563500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1460700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1313500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1001600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>959300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>871900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>774400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>710500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>823900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>711100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>605400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44164</v>
+      </c>
+      <c r="E80" s="2">
         <v>44066</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43975</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43884</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43793</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43702</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43611</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43520</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43429</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43338</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43247</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43156</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43065</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42974</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42883</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E81" s="3">
         <v>27000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-363500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>152700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>95300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>124500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>146600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>97100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>130100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>115800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>88000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E83" s="3">
         <v>34000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>36000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>228700</v>
+      </c>
+      <c r="E89" s="3">
         <v>199500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-156500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>197900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>206700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>106000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>55800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>215600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>161400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>231500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>77400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>168000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-119300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-80200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,49 +4858,52 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-31700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-31900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-58900</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-55000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-45000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-45000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-35000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-287100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>727600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-138000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-91800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>198800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-67700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-73900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-39300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-70000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-95500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>575000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>70500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>238900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-91200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-86200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>108500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-43400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>142300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>53800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>68900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44164</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44066</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43975</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43884</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43793</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43702</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43611</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43520</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43429</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43338</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43247</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43156</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43065</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42974</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42883</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1305600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1385900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1063100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>497500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1506100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1568600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1447100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1312900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1434500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1591900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1394200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1245700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1343700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1465800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1268400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1067900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>545600</v>
+      </c>
+      <c r="E9" s="3">
         <v>619300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>485700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>327900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>666800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>717200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>680300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>612500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>651700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>744400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>652600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>574900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>605600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>682600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>611800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>509500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E10" s="3">
         <v>766600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>577400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>169600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>839300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>851400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>766800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>782900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>847500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>741600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>670800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>738100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>783200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>656600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>558400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
         <v>39000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-5500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>155400</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>24900</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>22800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1128500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1308600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>970800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>945800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1327300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1437000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1275900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1274900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1233500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1463100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1234700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1168500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1169600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1315900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1122100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1028000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E18" s="3">
         <v>77300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>92300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-448300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>178800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>131600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>171200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>201000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>159500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>174100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>149900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>146300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>39900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>213500</v>
+      </c>
+      <c r="E21" s="3">
         <v>114600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>114000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-411900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>217500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>170200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>198400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>71400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>227800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>173100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>183000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>122100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>197300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>187000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>161400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>50200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E22" s="3">
         <v>25900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>154700</v>
+      </c>
+      <c r="E23" s="3">
         <v>52000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-458200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>164800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>118200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>151600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>181700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>135400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>139900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>75700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>149000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>139000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>117100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-94600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-13800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E26" s="3">
         <v>56700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-363500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>152700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>95800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>124200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>28500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>146500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>123200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>117400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>117200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>89500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E27" s="3">
         <v>56700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-363500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>152700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>95300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>124500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>123700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>74900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>117000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>115800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>88000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1785,20 +1846,20 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>6400</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E33" s="3">
         <v>56700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-363500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>152700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>95300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>124500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>97100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>130100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>115800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>88000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E35" s="3">
         <v>56700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-363500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>152700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>95300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>124500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>97100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>130100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>115800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>88000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44164</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44066</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43975</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43884</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43793</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43702</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43611</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43520</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43429</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43338</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43247</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43156</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43065</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42974</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42883</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,90 +2313,94 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1973600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1497200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1353000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1448200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>873600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>934200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>863800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>860900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>621900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>713100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>612500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>698700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>590200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>633600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>491300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>437500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E42" s="3">
         <v>96500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>72300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>76100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>84000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>80700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>80200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>79700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>100000</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2318,8 +2408,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600300</v>
+      </c>
+      <c r="E43" s="3">
         <v>540200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>543300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>333600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>710000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>782800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>722000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>574400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>633500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>534200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>487200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>342300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>428500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>485500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>446700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>309400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>835400</v>
+      </c>
+      <c r="E44" s="3">
         <v>817700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>944300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>986200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>854700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>884200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>935600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>895300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>914300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>883800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>938300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>842600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>826400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>759400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>826100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>780600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E45" s="3">
         <v>174600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>169000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>208200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>222800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>188200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>212100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>196800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>177500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>157000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>158000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>120700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>137900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>122800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>114100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3695600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3126200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3081900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3052400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2745000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2870200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2813700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2607100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2447300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2288100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2196000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2004400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1983100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1997200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1886900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1641600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1443300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1433400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1421000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1487200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>529600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>498900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>480500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>463800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>460600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>420000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>413200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>415000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>424500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>388700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>390500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>314300</v>
+      </c>
+      <c r="E49" s="3">
         <v>312200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>312300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>309000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>310300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>278600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>278400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>278500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>278900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>279100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>279300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>280100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>281600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>280200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>280100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>278900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>779300</v>
+      </c>
+      <c r="E52" s="3">
         <v>759500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>719700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>705600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>572800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>554100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>548000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>543200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>518300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>514900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>522300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>522400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>538700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>655900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>666300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>644200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6236200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5641200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5547300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5488000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5115200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4232400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4139000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3909400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3708400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3542700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3417700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3220100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3218300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3357800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3222000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2955200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>420600</v>
+      </c>
+      <c r="E57" s="3">
         <v>375500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>461500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>284400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>304200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>360300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>357700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>339500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>329900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>351300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>361700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>328800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>305200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>289500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>274500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>797300</v>
+      </c>
+      <c r="E58" s="3">
         <v>17600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>307900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>35800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1105800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1155800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1088700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>968000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>799300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>756700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>851000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>668900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>644500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>551800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>579700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>551100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>529500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>427500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2323700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1548900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1574200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1592400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1291500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1167200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1186000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1107700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1204400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1052200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1042000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>903700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>909800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>879100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>863200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>733600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1262700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1546700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1543300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1499000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>994400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1006700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1007000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1011100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1017700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1020200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1041800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1050400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1078700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1055400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1051200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1022300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1242800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1246200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1238500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1231400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1234500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>486900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>477600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>469300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>477300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>503600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>454600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>483500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>513200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>594000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>592400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>591500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4829200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4341800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4356000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4322800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3520400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2668900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2678300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2595900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2706700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2583400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2545800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2445700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2507800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2533900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2510800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2349800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1240800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1114300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1057400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1030500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1445200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1310500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1219100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1094700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1094600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1084300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1060200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>992400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>949300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1100900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1029300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>942400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1407000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1299500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1191300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1165200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1594800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1563500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1460700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1313500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1001600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>959300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>871900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>774400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>710500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>823900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>711100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>605400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44164</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44066</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43975</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43884</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43793</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43702</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43611</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43520</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43429</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43338</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43247</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43156</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43065</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42974</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42883</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E81" s="3">
         <v>56700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-363500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>152700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>95300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>124500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>97100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>130100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>115800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>88000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E83" s="3">
         <v>36800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E89" s="3">
         <v>228700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>199500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-156500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>197900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>206700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>106000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>215600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>161400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>66200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>231500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>77400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>168000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-119300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-45000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-63000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-80200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-16000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-31700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-31900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-58900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-55000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-45000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-45000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>439700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-287100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>727600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-138000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-91800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>198800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-67700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-73900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-70000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>476400</v>
+      </c>
+      <c r="E102" s="3">
         <v>144200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-95500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>575000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-60700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>70500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>238900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-91200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-86200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>108500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-43400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>142300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>53800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>68900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44346</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44164</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44066</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43975</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43884</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43793</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43702</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43611</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43520</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43429</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43338</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43247</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43156</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43065</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42974</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42883</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1305600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1385900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1063100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>497500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1506100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1568600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1447100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1312900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1434500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1591900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1394200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1245700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1343700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1465800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1268400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1067900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>525800</v>
+      </c>
+      <c r="E9" s="3">
         <v>545600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>619300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>485700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>327900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>666800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>717200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>680300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>612500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>651700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>744400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>652600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>574900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>605600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>682600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>611800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>509500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>750200</v>
+      </c>
+      <c r="E10" s="3">
         <v>760000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>766600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>577400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>169600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>839300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>851400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>766800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>782900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>847500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>741600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>670800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>738100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>783200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>656600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>558400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1065,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>35600</v>
       </c>
       <c r="E14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F14" s="3">
         <v>39000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-5500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>155400</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>24900</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>22800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1199600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1128500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1308600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>970800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>945800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1327300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1437000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1275900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1274900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1233500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1463100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1234700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1168500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1169600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1315900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1122100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1028000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E18" s="3">
         <v>177100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>77300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>92300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-448300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>178800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>131600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>171200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>201000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>128800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>159500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>174100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>149900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>146300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E21" s="3">
         <v>213500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>114600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-411900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>217500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>170200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>198400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>227800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>173100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>122100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>197300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>187000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>161400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>50200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E22" s="3">
         <v>23300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E23" s="3">
         <v>154700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>52000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-458200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>164800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>118200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>151600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>181700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>135400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>139900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>149000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>139000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>117100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-94600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-13800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E26" s="3">
         <v>142500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-363500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>152700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>95800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>124200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>146500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>123200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>77000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>117400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>117200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>89500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E27" s="3">
         <v>142500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-363500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>152700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>95300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>124500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>123700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>74900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>117000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>115800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>88000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1849,20 +1910,20 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>6400</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E33" s="3">
         <v>142500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-363500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>152700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>95300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>124500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>146600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>97100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>130100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>115800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>88000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E35" s="3">
         <v>142500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-363500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>152700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>95300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>124500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>146600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>97100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>130100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>115800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>88000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44346</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44164</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44066</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43975</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43884</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43793</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43702</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43611</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43520</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43429</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43338</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43247</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43156</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43065</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42974</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42883</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,96 +2400,100 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1224100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1973600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1497200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1353000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1448200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>873600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>934200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>863800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>860900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>621900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>713100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>612500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>698700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>590200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>633600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>491300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>437500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E42" s="3">
         <v>94300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>72300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>76100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>84000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>80700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>80200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>79700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100000</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2411,8 +2501,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2426,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>579900</v>
+      </c>
+      <c r="E43" s="3">
         <v>600300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>540200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>543300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>333600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>710000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>782800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>722000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>574400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>633500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>534200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>487200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>342300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>428500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>485500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>446700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>309400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>863400</v>
+      </c>
+      <c r="E44" s="3">
         <v>835400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>817700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>944300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>986200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>854700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>884200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>935600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>895300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>914300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>883800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>938300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>842600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>826400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>759400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>826100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>780600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E45" s="3">
         <v>192100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>174600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>169000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>208200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>222800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>188200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>212100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>196800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>177500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>157000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>158000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>120700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>137900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>118700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>122800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>114100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2970000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3695600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3126200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3081900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3052400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2745000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2870200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2813700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2607100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2447300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2288100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2196000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2004400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1983100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1997200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1886900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1641600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1436100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1447000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1443300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1433400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1421000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1487200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>529600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>498900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>480500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>463800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>460600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>420000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>413200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>415000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>424500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>388700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>390500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>313900</v>
+      </c>
+      <c r="E49" s="3">
         <v>314300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>312200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>312300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>309000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>310300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>278600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>278400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>278500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>278900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>279100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>279300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>280100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>281600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>280200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>280100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>278900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>824600</v>
+      </c>
+      <c r="E52" s="3">
         <v>779300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>759500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>719700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>705600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>572800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>554100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>548000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>543200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>518300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>514900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>522300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>522400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>538700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>655900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>666300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>644200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5544700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6236200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5641200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5547300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5488000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5115200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4232400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4139000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3909400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3708400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3542700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3417700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3220100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3218300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3357800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3222000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2955200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>436500</v>
+      </c>
+      <c r="E57" s="3">
         <v>420600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>375500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>461500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>284400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>304200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>360300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>357700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>339500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>329900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>351300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>361700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>328800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>305200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>289500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>274500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E58" s="3">
         <v>797300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>307900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>35800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1179500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1105800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1155800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1088700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>968000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>799300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>756700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>851000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>668900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>644500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>551800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>579700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>551100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>529500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>427500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1625200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2323700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1548900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1574200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1592400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1291500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1167200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1186000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1107700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1204400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1052200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1042000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>903700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>909800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>879100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>863200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>733600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1263800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1262700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1546700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1543300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1499000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>994400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1006700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1007000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1011100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1017700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1020200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1041800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1050400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1078700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1055400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1051200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1022300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1221600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1242800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1246200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1238500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1231400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1234500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>486900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>477600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>469300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>477300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>503600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>454600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>483500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>513200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>594000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>592400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>591500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4110600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4829200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4341800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4356000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4322800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3520400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2668900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2678300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2595900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2706700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2583400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2545800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2445700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2507800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2533900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2510800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2349800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1281400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1240800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1114300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1057400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1030500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1445200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1310500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1219100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1094700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1094600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1084300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1060200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>992400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>949300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1100900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1029300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>942400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1407000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1299500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1191300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1165200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1594800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1563500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1460700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1313500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1001600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>959300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>871900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>774400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>710500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>823900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>711100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>605400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44346</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44164</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44066</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43975</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43884</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43793</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43702</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43611</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43520</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43429</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43338</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43247</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43156</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43065</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42974</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42883</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E81" s="3">
         <v>142500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-363500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>152700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>95300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>124500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>146600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>97100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>130100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>115800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>88000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E83" s="3">
         <v>35500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>36800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E89" s="3">
         <v>69500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>228700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>199500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-156500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>197900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>206700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>43700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>106000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>215600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>161400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>66200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>231500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>77400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>168000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-51100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-70800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-119300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-45000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-55200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-80200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-31700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-31900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-58900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-55000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-45000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-35000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-892800</v>
+      </c>
+      <c r="E100" s="3">
         <v>439700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-287100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>727600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-138000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-91800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>198800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-67700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-52500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-73900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-39300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-70000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-749500</v>
+      </c>
+      <c r="E102" s="3">
         <v>476400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>144200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-95500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>575000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-60700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>70500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>238900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-91200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-86200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>108500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>142300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>53800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>68900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44437</v>
+      </c>
+      <c r="E7" s="2">
         <v>44346</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44164</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44066</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43975</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43884</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43793</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43702</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43611</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43520</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43429</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43338</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43247</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43156</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43065</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42974</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42883</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1497600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1276000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1305600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1385900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1063100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>497500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1506100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1568600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1447100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1312900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1434500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1591900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1394200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1245700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1343700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1465800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1268400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1067900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>635400</v>
+      </c>
+      <c r="E9" s="3">
         <v>525800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>545600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>619300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>485700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>327900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>666800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>717200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>680300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>612500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>651700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>744400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>652600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>574900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>605600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>682600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>611800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>509500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>862200</v>
+      </c>
+      <c r="E10" s="3">
         <v>750200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>760000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>766600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>577400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>169600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>839300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>851400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>766800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>782900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>847500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>741600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>670800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>738100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>783200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>656600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>558400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>35600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>39000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>155400</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>24900</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>22800</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1281300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1199600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1128500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1308600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>970800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>945800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1327300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1437000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1275900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1274900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1233500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1463100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1234700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1168500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1169600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1315900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1122100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1028000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>216300</v>
+      </c>
+      <c r="E18" s="3">
         <v>76400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>177100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>77300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>92300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-448300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>178800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>131600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>171200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>201000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>128800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>159500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>174100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>149900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>146300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>39900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-18100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>256800</v>
+      </c>
+      <c r="E21" s="3">
         <v>110100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>213500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-411900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>217500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>170200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>198400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>71400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>227800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>173100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>183000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>122100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>197300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>187000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>161400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>50200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E22" s="3">
         <v>19900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E23" s="3">
         <v>55700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>154700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>51600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-458200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>164800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>118200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>151600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>181700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>135400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>139900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>75700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>149000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>139000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>117100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-94600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-13800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E26" s="3">
         <v>64700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>142500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-363500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>152700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>95800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>124200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>146500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>123200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>77000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>117400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>117200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>89500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E27" s="3">
         <v>64700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>142500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-363500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>152700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>95300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>124500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>146600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>123700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>117000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>115800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>88000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1913,20 +1974,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>6400</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>18100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E33" s="3">
         <v>64700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>142500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-363500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>152700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>95300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>124500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>146600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>97100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>130100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>115800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>88000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E35" s="3">
         <v>64700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>142500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-363500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>152700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>95300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>124500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>146600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>97100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>130100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>115800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>88000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44437</v>
+      </c>
+      <c r="E38" s="2">
         <v>44346</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44164</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44066</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43975</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43884</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43793</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43702</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43611</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43520</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43429</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43338</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43247</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43156</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43065</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42974</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42883</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,102 +2487,106 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1376600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1224100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1973600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1497200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1353000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1448200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>873600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>934200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>863800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>860900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>621900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>713100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>612500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>698700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>590200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>633600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>491300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>437500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E42" s="3">
         <v>94500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>94300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>96500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>76100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>84000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>80700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>80200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>79700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100000</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2504,8 +2594,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>667300</v>
+      </c>
+      <c r="E43" s="3">
         <v>579900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>540200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>543300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>333600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>710000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>782800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>722000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>574400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>633500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>534200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>487200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>342300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>428500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>485500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>446700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>309400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>902300</v>
+      </c>
+      <c r="E44" s="3">
         <v>863400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>835400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>817700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>944300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>986200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>854700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>884200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>935600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>895300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>914300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>883800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>938300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>842600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>826400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>759400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>826100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>780600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>189300</v>
+      </c>
+      <c r="E45" s="3">
         <v>208200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>192100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>174600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>169000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>208200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>222800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>188200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>212100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>196800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>177500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>157000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>158000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>120700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>137900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>118700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>122800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>114100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3231000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2970000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3695600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3126200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3081900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3052400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2745000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2870200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2813700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2607100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2447300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2288100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2196000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2004400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1983100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1997200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1886900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1641600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1592700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1436100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1447000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1443300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1433400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1421000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1487200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>529600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>498900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>480500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>463800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>460600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>420000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>413200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>415000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>424500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>388700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>390500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>312300</v>
+      </c>
+      <c r="E49" s="3">
         <v>313900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>314300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>312200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>312300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>309000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>310300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>278600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>278400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>278500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>278900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>279100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>279300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>280100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>281600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>280200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>280100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>278900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>854800</v>
+      </c>
+      <c r="E52" s="3">
         <v>824600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>779300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>759500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>719700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>705600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>572800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>554100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>548000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>543200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>518300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>514900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>522300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>522400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>538700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>655900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>666300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>644200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5990800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5544700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6236200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5641200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5547300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5488000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5115200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4232400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4139000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3909400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3708400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3542700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3417700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3220100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3218300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3357800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3222000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2955200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>551500</v>
+      </c>
+      <c r="E57" s="3">
         <v>436500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>420600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>375500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>461500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>284400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>304200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>360300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>357700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>339500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>329900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>351300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>361700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>328800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>305200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>289500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>274500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E58" s="3">
         <v>9200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>797300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>307900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1210000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1179500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1105800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1155800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1088700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>968000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>799300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>756700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>851000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>668900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>644500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>551800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>579700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>551100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>529500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>427500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1769000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1625200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2323700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1548900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1574200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1592400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1291500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1167200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1186000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1107700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1204400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1052200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1042000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>903700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>909800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>879100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>863200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>733600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1243300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1263800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1262700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1546700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1543300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1499000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>994400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1006700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1007000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1011100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1017700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1020200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1041800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1050400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1078700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1055400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1051200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1022300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1368500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1221600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1242800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1246200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1238500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1231400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1234500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>486900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>477600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>469300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>477300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>503600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>454600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>483500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>513200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>594000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>592400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>591500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4380900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4110600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4829200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4341800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4356000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4322800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3520400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2668900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2678300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2595900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2706700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2583400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2545800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2445700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2507800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2533900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2510800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2349800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1442500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1281400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1240800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1114300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1057400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1030500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1445200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1310500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1219100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1094700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1094600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1084300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1060200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>992400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>949300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1100900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1029300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>942400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1609900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1434000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1407000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1299500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1191300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1165200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1594800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1563500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1460700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1313500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1001600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>959300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>871900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>774400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>710500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>823900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>711100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>605400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44437</v>
+      </c>
+      <c r="E80" s="2">
         <v>44346</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44164</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44066</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43975</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43884</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43793</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43702</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43611</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43520</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43429</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43338</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43247</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43156</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43065</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42974</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42883</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E81" s="3">
         <v>64700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>142500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-363500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>152700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>95300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>124500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>146600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>97100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>130100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>115800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>88000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E83" s="3">
         <v>34500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>36800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>250800</v>
+      </c>
+      <c r="E89" s="3">
         <v>178500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>69500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>228700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>199500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-156500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>197900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>206700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>106000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>215600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>161400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>66200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>231500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>77400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>168000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-51100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-70800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-119300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-80200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-24100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-31700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-31900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-58900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-55000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-45000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-45000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-35000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-892800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>439700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-287100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>727600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-138000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-91800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>198800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-67700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-73900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-39300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-70000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-749500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>476400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>144200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-95500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>575000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>70500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>238900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-91200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-86200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>108500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-43400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>142300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>53800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>68900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44528</v>
+      </c>
+      <c r="E7" s="2">
         <v>44437</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44346</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44164</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44066</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43975</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43884</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43793</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43702</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43611</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43520</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43429</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43338</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43247</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43156</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43065</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42974</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42883</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1684800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1497600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1276000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1305600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1385900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1063100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>497500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1506100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1568600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1447100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1312900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1434500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1591900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1394200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1245700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1343700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1465800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1268400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1067900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>710500</v>
+      </c>
+      <c r="E9" s="3">
         <v>635400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>525800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>545600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>619300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>485700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>327900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>666800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>717200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>680300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>612500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>651700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>744400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>652600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>574900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>605600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>682600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>611800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>509500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>974300</v>
+      </c>
+      <c r="E10" s="3">
         <v>862200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>750200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>760000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>766600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>577400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>169600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>839300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>851400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>766800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>782900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>847500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>741600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>670800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>738100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>783200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>656600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>558400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>39000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>155400</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>24900</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>22800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1504600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1281300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1199600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1128500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1308600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>970800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>945800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1327300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1437000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1275900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1274900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1233500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1463100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1234700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1168500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1169600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1315900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1122100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1028000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E18" s="3">
         <v>216300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>177100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>77300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-448300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>178800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>131600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>171200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>201000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>128800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>159500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>174100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>149900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>146300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>39900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>4800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-18100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E21" s="3">
         <v>256800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>110100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>213500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>114000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-411900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>217500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>170200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>198400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>227800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>173100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>183000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>122100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>197300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>187000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>161400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>50200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E22" s="3">
         <v>18100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>166800</v>
+      </c>
+      <c r="E23" s="3">
         <v>203000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>55700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>154700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>52000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>51600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-458200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>164800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>118200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>151600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>181700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>135400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>139900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>75700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>149000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>139000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>117100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E24" s="3">
         <v>9700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-94600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-13800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E26" s="3">
         <v>193300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>64700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>142500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-363500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>152700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>95800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>124200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>146500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>123200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>77000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>117400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>117200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>89500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E27" s="3">
         <v>193300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>64700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>142500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-363500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>152700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>95300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>124500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>146600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>123700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>74900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>117000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>115800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>88000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1977,20 +2037,20 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>6400</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>18100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E33" s="3">
         <v>193300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>64700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>142500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-363500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>152700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>95300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>124500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>146600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>97100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>130100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>74900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>115800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>88000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E35" s="3">
         <v>193300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>64700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>142500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-363500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>152700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>95300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>124500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>146600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>97100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>130100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>74900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>115800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>88000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44528</v>
+      </c>
+      <c r="E38" s="2">
         <v>44437</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44346</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44164</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44066</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43975</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43884</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43793</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43702</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43611</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43520</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43429</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43338</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43247</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43156</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43065</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42974</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42883</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,108 +2573,112 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>810300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1376600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1224100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1973600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1497200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1353000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1448200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>873600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>934200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>863800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>860900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>621900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>713100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>612500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>698700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>590200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>633600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>491300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>437500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E42" s="3">
         <v>95500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>94500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>94300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>96500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>72300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>76100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>84000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>80700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>80200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>79700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>100000</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2597,8 +2686,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2612,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>707600</v>
+      </c>
+      <c r="E43" s="3">
         <v>667300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>579900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>540200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>543300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>333600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>710000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>782800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>722000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>574400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>633500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>534200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>487200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>342300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>428500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>485500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>446700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>309400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>898000</v>
+      </c>
+      <c r="E44" s="3">
         <v>902300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>863400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>835400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>817700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>944300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>986200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>854700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>884200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>935600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>895300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>914300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>883800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>938300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>842600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>826400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>759400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>826100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>780600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E45" s="3">
         <v>189300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>208200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>192100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>174600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>169000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>208200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>222800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>212100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>196800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>177500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>157000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>158000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>120700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>137900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>118700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>122800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>114100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2709900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3231000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2970000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3695600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3126200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3081900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3052400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2745000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2870200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2813700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2607100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2447300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2288100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2196000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2004400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1983100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1997200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1886900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1641600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1606300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1592700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1436100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1447000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1443300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1433400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1421000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1487200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>529600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>498900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>480500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>463800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>460600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>420000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>413200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>415000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>424500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>388700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>390500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>678200</v>
+      </c>
+      <c r="E49" s="3">
         <v>312300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>313900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>314300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>312200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>312300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>309000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>310300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>278600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>278400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>278500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>278900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>279100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>279300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>280100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>281600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>280200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>280100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>278900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>905700</v>
+      </c>
+      <c r="E52" s="3">
         <v>854800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>824600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>779300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>759500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>719700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>705600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>572800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>554100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>548000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>543200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>518300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>514900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>522300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>522400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>538700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>655900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>666300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>644200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5990800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5544700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6236200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5641200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5547300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5488000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5115200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4232400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4139000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3909400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3708400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3542700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3417700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3220100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3218300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3357800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3222000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2955200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>524800</v>
+      </c>
+      <c r="E57" s="3">
         <v>551500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>436500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>420600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>375500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>461500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>284400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>304200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>360300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>357700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>339500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>329900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>351300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>361700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>328800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>305200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>289500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>274500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>797300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>307900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>35800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>38500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>33400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1338900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1210000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1179500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1105800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1155800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1088700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>968000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>799300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>756700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>851000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>668900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>644500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>551800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>579700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>551100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>529500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>427500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1869600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1769000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1625200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2323700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1548900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1574200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1592400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1291500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1167200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1186000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1107700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1204400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1052200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>903700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>909800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>879100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>863200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>733600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1020700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1243300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1263800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1262700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1546700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1543300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1499000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>994400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1006700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1007000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1011100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1017700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1020200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1041800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1050400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1078700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1055400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1051200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1022300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1344100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1368500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1221600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1242800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1246200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1238500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1231400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1234500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>486900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>477600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>469300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>477300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>503600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>454600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>483500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>513200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>594000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>592400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>591500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4234400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4380900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4110600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4829200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4341800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4356000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4322800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3520400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2668900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2678300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2595900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2706700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2583400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2545800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2445700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2507800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2533900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2510800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2349800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1474900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1442500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1281400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1240800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1114300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1057400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1030500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1445200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1310500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1219100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1094700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1094600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1084300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1060200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>992400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>949300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1100900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1029300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>942400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1665700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1609900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1434000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1407000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1299500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1191300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1165200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1594800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1563500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1460700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1313500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1001600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>959300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>871900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>774400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>710500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>823900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>711100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>605400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44528</v>
+      </c>
+      <c r="E80" s="2">
         <v>44437</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44346</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44164</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44066</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43975</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43884</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43793</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43702</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43611</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43520</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43429</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43338</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43247</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43156</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43065</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42974</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42883</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E81" s="3">
         <v>193300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>64700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>142500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-363500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>152700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>95300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>124500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>146600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>97100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>130100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>74900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>115800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>88000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E83" s="3">
         <v>35600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E89" s="3">
         <v>250800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>178500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>69500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>228700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>199500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-156500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>197900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>206700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>106000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>215600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>161400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>66200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>231500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>77400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>168000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-51100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-444100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-70800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-119300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-63000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-80200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5560,61 +5793,64 @@
         <v>-32200</v>
       </c>
       <c r="E96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-24100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-16000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-31700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-31900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-58900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-55000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-45000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-45000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-35000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-351300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-892800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>439700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-287100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>727600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-138000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-91800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>198800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-67700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-52500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-73900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-39300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-70000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-566500</v>
+      </c>
+      <c r="E102" s="3">
         <v>152400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-749500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>476400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>144200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-95500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>575000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>70500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>238900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-91200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-86200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>108500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-43400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>142300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>53800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>68900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44619</v>
+      </c>
+      <c r="E7" s="2">
         <v>44528</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44437</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44346</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44164</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44066</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43975</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43884</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43793</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43702</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43611</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43520</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43429</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43338</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43247</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43156</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43065</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42974</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42883</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1591600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1684800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1497600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1276000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1305600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1385900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1063100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>497500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1506100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1568600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1447100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1312900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1434500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1591900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1394200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1245700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1343700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1465800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1268400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1067900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>648000</v>
+      </c>
+      <c r="E9" s="3">
         <v>710500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>635400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>525800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>545600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>619300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>485700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>327900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>666800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>717200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>680300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>612500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>651700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>744400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>652600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>574900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>605600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>682600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>611800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>509500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>943600</v>
+      </c>
+      <c r="E10" s="3">
         <v>974300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>862200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>750200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>760000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>766600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>577400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>169600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>839300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>851400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>766800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>782900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>847500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>741600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>670800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>738100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>783200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>656600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>558400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E14" s="3">
         <v>9900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>35600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>39000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-5500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>155400</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>24900</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>22800</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1344800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1504600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1281300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1199600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1128500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1308600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>970800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>945800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1327300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1437000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1275900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1274900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1233500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1463100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1234700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1168500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1169600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1315900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1122100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1028000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E18" s="3">
         <v>180200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>216300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>76400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>177100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>77300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>92300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-448300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>178800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>131600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>171200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>201000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>128800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>159500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>174100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>149900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>146300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>39900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-18100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>289100</v>
+      </c>
+      <c r="E21" s="3">
         <v>216000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>256800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>110100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>213500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>114600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>114000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-411900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>217500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>170200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>198400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>227800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>173100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>183000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>122100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>197300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>187000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>161400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>50200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>11500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>245900</v>
+      </c>
+      <c r="E23" s="3">
         <v>166800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>203000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>55700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>154700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-458200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>164800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>118200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>151600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>181700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>135400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>139900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>75700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>149000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>139000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>117100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="3">
         <v>13800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-94600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>27600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-13800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E26" s="3">
         <v>153000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>193300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>64700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>142500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-363500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>152700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>95800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>124200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>146500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>123200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>77000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>117400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>117200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>89500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E27" s="3">
         <v>153000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>193300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>64700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>142500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-363500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>152700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>95300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>124500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>146600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>123700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>74900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>117000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>115800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>88000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,31 +2057,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2040,20 +2101,20 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>6400</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>18100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E33" s="3">
         <v>153000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>193300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>64700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>142500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-363500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>152700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>95300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>124500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>146600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>97100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>130100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>74900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>115800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>88000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E35" s="3">
         <v>153000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>193300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>64700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>142500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-363500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>152700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>95300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>124500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>146600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>97100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>130100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>74900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>115800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>88000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44619</v>
+      </c>
+      <c r="E38" s="2">
         <v>44528</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44437</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44346</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44164</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44066</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43975</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43884</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43793</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43702</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43611</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43520</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43429</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43338</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43247</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43156</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43065</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42974</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42883</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,114 +2660,118 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>678300</v>
+      </c>
+      <c r="E41" s="3">
         <v>810300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1376600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1224100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1973600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1497200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1353000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1448200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>873600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>934200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>863800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>860900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>621900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>713100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>612500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>698700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>590200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>633600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>491300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>437500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E42" s="3">
         <v>91600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>95500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>94500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>94300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>96500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>72300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>76100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>84000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>80700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>80200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>79700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>100000</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2689,8 +2779,8 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>648200</v>
+      </c>
+      <c r="E43" s="3">
         <v>707600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>667300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>579900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>540200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>543300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>333600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>710000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>782800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>722000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>574400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>633500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>534200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>487200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>342300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>428500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>485500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>446700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>309400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1006200</v>
+      </c>
+      <c r="E44" s="3">
         <v>898000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>902300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>863400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>835400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>817700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>944300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>986200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>854700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>884200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>935600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>895300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>914300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>883800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>938300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>842600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>826400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>759400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>826100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>780600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E45" s="3">
         <v>202500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>189300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>208200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>192100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>174600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>169000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>208200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>222800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>188200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>212100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>196800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>177500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>157000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>158000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>120700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>137900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>118700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>122800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>114100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2613000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2709900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3231000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2970000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3695600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3126200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3081900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3052400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2745000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2870200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2813700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2607100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2447300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2288100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2196000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2004400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1983100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1997200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1886900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1641600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1577600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1606300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1592700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1436100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1447000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1443300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1433400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1421000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1487200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>529600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>498900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>480500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>463800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>460600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>420000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>413200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>415000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>424500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>388700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>390500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>667800</v>
+      </c>
+      <c r="E49" s="3">
         <v>678200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>312300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>313900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>314300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>312200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>312300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>309000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>310300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>278600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>278400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>278500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>278900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>279100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>279300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>280100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>281600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>280200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>280100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>278900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>893300</v>
+      </c>
+      <c r="E52" s="3">
         <v>905700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>854800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>824600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>779300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>759500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>719700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>705600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>572800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>554100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>548000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>543200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>518300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>514900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>522300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>522400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>538700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>655900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>666300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>644200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5751800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5990800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5544700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6236200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5641200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5547300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5488000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5115200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4232400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4139000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3909400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3708400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3542700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3417700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3220100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3218300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3357800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3222000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2955200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>563000</v>
+      </c>
+      <c r="E57" s="3">
         <v>524800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>551500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>436500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>420600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>375500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>461500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>284400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>304200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>360300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>357700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>339500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>329900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>351300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>361700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>328800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>305200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>289500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>274500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>797300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>307900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>35800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>38500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>33400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1118800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1338900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1210000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1179500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1105800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1155800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1088700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>968000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>799300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>756700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>851000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>668900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>644500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>551800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>579700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>551100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>529500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>427500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1686000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1869600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1769000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1625200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2323700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1548900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1574200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1592400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1291500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1167200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1186000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1107700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1204400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1052200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1042000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>903700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>909800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>879100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>863200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>733600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1020500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1020700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1243300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1263800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1262700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1546700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1543300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1499000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>994400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1006700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1007000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1011100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1017700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1020200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1041800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1050400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1078700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1055400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1051200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1022300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1321600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1344100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1368500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1221600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1242800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1246200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1238500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1231400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1234500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>486900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>477600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>469300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>477300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>503600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>454600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>483500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>513200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>594000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>592400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>591500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4028200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4234400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4380900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4110600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4829200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4341800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4356000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4322800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3520400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2668900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2678300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2595900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2706700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2583400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2545800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2445700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2507800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2533900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2510800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2349800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1559300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1474900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1442500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1281400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1240800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1114300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1057400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1030500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1445200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1310500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1219100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1094700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1094600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1084300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1060200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>992400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>949300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1100900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1029300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>942400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1723600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1665700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1609900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1434000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1407000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1299500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1191300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1165200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1594800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1563500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1460700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1313500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1001600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>959300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>871900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>774400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>710500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>823900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>711100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>605400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44619</v>
+      </c>
+      <c r="E80" s="2">
         <v>44528</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44437</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44346</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44164</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44066</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43975</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43884</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43793</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43702</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43611</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43520</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43429</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43338</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43247</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43156</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43065</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42974</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42883</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E81" s="3">
         <v>153000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>193300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>64700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>142500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-363500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>152700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>95300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>124500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>146600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>97100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>130100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>74900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>115800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>88000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E83" s="3">
         <v>37600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>28400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E89" s="3">
         <v>238400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>250800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>178500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>69500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>228700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>199500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-156500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>197900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>206700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>106000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>55800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>215600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-22800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>161400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>66200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>231500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>77400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>168000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-51100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-444100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-119300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-63000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-80200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-26800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32200</v>
+        <v>-39900</v>
       </c>
       <c r="E96" s="3">
         <v>-32200</v>
       </c>
       <c r="F96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-24100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-16000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-31700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-58900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-55000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-45000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-35000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-351300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-892800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>439700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-287100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>727600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-138000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-91800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>198800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-67700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-52500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-73900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-39300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-70000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-131900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-566500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>152400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-749500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>476400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>144200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-95500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>575000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>70500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>238900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-91200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-86200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>108500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-43400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>142300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>53800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>68900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44710</v>
+      </c>
+      <c r="E7" s="2">
         <v>44619</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44528</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44437</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44346</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44164</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44066</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43975</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43884</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43793</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43702</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43611</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43520</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43429</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43338</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43247</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43156</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43065</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42974</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42883</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1471100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1591600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1684800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1497600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1276000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1305600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1385900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1063100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>497500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1506100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1568600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1447100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1312900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1434500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1591900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1394200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1245700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1343700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1465800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1268400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1067900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>616100</v>
+      </c>
+      <c r="E9" s="3">
         <v>648000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>710500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>635400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>525800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>545600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>619300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>485700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>327900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>666800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>717200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>680300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>612500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>651700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>744400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>652600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>574900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>605600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>682600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>611800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>509500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E10" s="3">
         <v>943600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>974300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>862200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>750200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>760000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>766600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>577400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>169600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>839300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>851400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>766800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>782900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>847500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>741600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>670800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>738100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>783200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>656600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>558400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1144,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-8400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>155400</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>24900</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>22800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1344800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1504600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1281300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1199600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1128500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1308600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>970800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>945800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1327300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1437000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1275900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1274900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1233500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1463100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1234700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1168500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1169600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1315900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1122100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1028000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E18" s="3">
         <v>246800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>180200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>216300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>76400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>177100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>77300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-448300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>178800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>131600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>171200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>201000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>128800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>159500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>77200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>174100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>149900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>146300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>39900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E21" s="3">
         <v>289100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>216000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>256800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>110100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>213500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>114600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>114000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-411900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>217500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>170200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>198400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>71400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>227800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>173100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>183000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>122100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>197300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>187000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>161400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>50200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E23" s="3">
         <v>245900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>166800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>203000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>55700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>154700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-458200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>164800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>118200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>151600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>181700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>135400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>139900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>75700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>149000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>139000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>117100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E24" s="3">
         <v>50000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-94600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-13800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E26" s="3">
         <v>195800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>153000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>193300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>64700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>142500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-363500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>152700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>95800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>124200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>146500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>123200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>77000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>117400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>117200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>89500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E27" s="3">
         <v>195800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>153000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>193300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>64700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>142500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-363500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>152700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>95300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>124500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>146600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>123700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>74900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>117000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>115800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>88000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2147,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2104,20 +2165,20 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>6400</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E33" s="3">
         <v>195800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>153000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>193300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>64700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>142500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>56700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-363500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>152700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>95300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>124500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>146600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>97100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>130100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>74900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>115800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>88000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E35" s="3">
         <v>195800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>153000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>193300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>64700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>142500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>56700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-363500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>152700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>95300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>124500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>146600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>97100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>130100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>74900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>115800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>88000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44710</v>
+      </c>
+      <c r="E38" s="2">
         <v>44619</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44528</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44437</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44346</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44164</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44066</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43975</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43884</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43793</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43702</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43611</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43520</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43429</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43338</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43247</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43156</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43065</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42974</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42883</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,120 +2747,124 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>601900</v>
+      </c>
+      <c r="E41" s="3">
         <v>678300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>810300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1376600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1224100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1973600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1497200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1353000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1448200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>873600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>934200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>863800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>860900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>621900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>713100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>612500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>698700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>590200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>633600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>491300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>437500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E42" s="3">
         <v>98800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>91600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>95500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>94500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>94300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>96500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>72300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>76100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>84000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>80700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>80200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>79700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>100000</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -2782,8 +2872,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2797,280 +2887,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>609200</v>
+      </c>
+      <c r="E43" s="3">
         <v>648200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>707600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>667300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>579900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>540200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>543300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>333600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>710000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>782800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>722000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>574400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>633500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>534200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>487200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>342300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>428500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>485500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>446700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>309400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1112800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1006200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>898000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>902300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>863400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>835400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>817700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>944300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>986200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>854700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>884200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>935600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>895300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>914300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>883800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>938300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>842600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>826400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>759400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>826100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>780600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>222100</v>
+      </c>
+      <c r="E45" s="3">
         <v>181500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>202500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>189300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>208200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>192100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>174600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>169000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>208200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>222800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>212100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>196800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>177500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>157000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>158000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>120700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>137900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>118700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>122800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>114100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2642400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2613000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2709900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3231000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2970000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3695600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3126200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3081900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3052400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2745000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2870200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2813700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2607100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2447300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2288100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2196000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2004400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1983100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1997200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1886900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1641600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3242,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1533300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1577600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1606300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1592700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1436100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1447000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1443300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1433400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1421000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1487200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>529600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>498900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>480500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>463800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>460600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>420000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>413200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>415000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>424500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>388700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>390500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>657300</v>
+      </c>
+      <c r="E49" s="3">
         <v>667800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>678200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>312300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>313900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>314300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>312200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>312300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>309000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>310300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>278600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>278400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>278500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>278900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>279100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>279300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>280100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>281600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>280200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>280100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>278900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>904800</v>
+      </c>
+      <c r="E52" s="3">
         <v>893300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>905700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>854800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>824600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>779300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>759500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>719700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>705600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>572800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>554100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>548000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>543200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>518300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>514900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>522300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>522400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>538700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>655900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>666300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>644200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5737800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5751800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5900100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5990800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5544700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6236200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5641200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5547300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5488000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5115200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4232400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4139000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3909400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3708400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3542700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3417700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3220100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3218300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3357800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3222000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2955200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>558700</v>
+      </c>
+      <c r="E57" s="3">
         <v>563000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>524800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>551500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>436500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>420600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>375500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>461500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>284400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>304200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>360300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>357700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>339500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>329900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>351300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>361700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>328800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>305200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>289500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>274500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>797300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>307900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>33400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>31600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1118800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1338900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1210000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1179500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1105800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1155800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1088700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>968000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>799300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>756700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>851000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>668900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>644500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>551800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>579700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>551100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>529500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>427500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1730600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1686000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1869600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1769000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1625200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2323700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1548900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1574200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1592400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1291500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1167200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1186000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1107700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1204400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1052200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1042000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>903700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>909800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>879100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>863200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>733600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>998500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1020500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1020700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1243300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1263800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1262700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1546700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1543300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1499000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>994400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1006700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1007000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1011100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1017700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1020200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1041800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1050400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1078700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1055400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1051200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1022300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1280300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1321600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1344100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1368500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1221600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1242800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1246200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1238500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1231400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1234500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>486900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>477600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>469300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>477300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>503600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>454600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>483500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>513200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>594000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>592400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>591500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4009400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4028200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4234400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4380900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4110600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4829200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4341800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4356000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4322800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3520400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2668900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2678300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2595900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2706700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2583400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2545800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2445700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2507800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2533900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2510800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2349800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1529300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1559300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1474900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1442500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1281400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1240800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1114300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1057400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1030500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1445200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1310500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1219100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1094700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1094600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1084300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1060200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>992400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>949300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1100900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1029300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>942400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1728300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1723600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1665700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1609900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1434000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1407000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1299500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1191300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1165200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1594800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1563500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1460700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1313500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1001600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>959300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>871900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>774400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>710500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>823900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>711100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>605400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44710</v>
+      </c>
+      <c r="E80" s="2">
         <v>44619</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44528</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44437</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44346</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44164</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44066</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43975</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43884</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43793</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43702</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43611</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43520</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43429</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43338</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43247</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43156</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43065</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42974</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42883</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E81" s="3">
         <v>195800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>153000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>193300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>64700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>142500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>56700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-363500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>152700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>95300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>124500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>146600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>97100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>130100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>74900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>115800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>88000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E83" s="3">
         <v>38900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>28400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E89" s="3">
         <v>86100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>238400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>250800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>178500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>69500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>228700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>199500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-156500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>197900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>206700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>106000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>55800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>215600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-22800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>161400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>66200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>231500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>77400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>168000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-51100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-78200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-444100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-119300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-63000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-80200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-48800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-26800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-39900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-32200</v>
       </c>
       <c r="F96" s="3">
         <v>-32200</v>
       </c>
       <c r="G96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-24100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-16000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-31700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-58900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-45000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-45000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-35000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-139400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-351300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-892800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>439700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-287100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>727600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-138000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-91800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>198800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-52500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-73900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-39300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-70000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-131900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-566500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>152400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-749500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>476400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>144200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-95500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>575000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>70500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>238900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-91200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-86200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>108500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-43400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>142300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>53800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>68900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44801</v>
+      </c>
+      <c r="E7" s="2">
         <v>44710</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44619</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44528</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44437</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44346</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44164</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44066</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43975</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43884</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43793</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43702</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43611</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43520</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43429</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43338</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43247</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43156</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43065</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42974</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42883</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1517200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1471100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1591600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1684800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1497600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1276000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1305600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1385900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1063100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>497500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1506100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1568600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1447100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1312900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1434500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1591900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1394200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1245700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1343700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1465800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1268400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1067900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>654300</v>
+      </c>
+      <c r="E9" s="3">
         <v>616100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>648000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>710500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>635400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>525800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>545600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>619300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>485700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>327900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>666800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>717200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>680300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>612500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>651700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>744400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>652600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>574900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>605600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>682600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>611800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>509500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>862900</v>
+      </c>
+      <c r="E10" s="3">
         <v>855000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>943600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>974300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>862200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>750200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>760000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>766600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>577400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>169600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>839300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>851400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>766800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>782900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>847500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>741600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>670800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>738100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>783200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>656600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>558400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,79 +1164,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>52200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-8400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>39000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>155400</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>24900</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>22800</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1395000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1344800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1504600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1281300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1199600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1128500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1308600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>970800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>945800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1327300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1437000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1275900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1274900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1233500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1463100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1234700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1168500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1169600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1315900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1122100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1028000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>199200</v>
+      </c>
+      <c r="E18" s="3">
         <v>76100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>246800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>180200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>216300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>177100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>77300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-448300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>178800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>131600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>171200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>201000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>128800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>159500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>77200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>174100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>149900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>146300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>39900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,363 +1515,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>6100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E21" s="3">
         <v>121000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>289100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>216000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>256800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>110100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>213500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>114600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>114000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-411900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>217500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>170200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>198400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>71400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>227800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>173100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>183000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>122100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>197300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>187000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>161400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>50200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E23" s="3">
         <v>77800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>245900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>166800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>203000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>55700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>154700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-458200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>164800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>118200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>151600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>181700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>135400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>139900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>75700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>149000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>139000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>117100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E24" s="3">
         <v>28100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>50000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-94600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>31700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E26" s="3">
         <v>49700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>195800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>153000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>193300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>64700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>142500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-363500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>152700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>95800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>124200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>146500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>123200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>77000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>117400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>117200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>89500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E27" s="3">
         <v>49700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>195800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>153000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>193300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>64700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>142500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-363500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>152700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>95300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>124500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>146600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>123700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>74900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>117000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>115800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>88000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,8 +2211,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2168,20 +2229,20 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>6400</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>18100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E33" s="3">
         <v>49700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>195800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>153000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>193300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>64700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>142500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>56700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-363500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>152700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>95300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>124500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>146600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>97100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>130100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>74900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-19000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>115800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>88000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E35" s="3">
         <v>49700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>195800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>153000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>193300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>64700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>142500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>56700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-363500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>152700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>95300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>124500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>146600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>97100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>130100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>74900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-19000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>115800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>88000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44801</v>
+      </c>
+      <c r="E38" s="2">
         <v>44710</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44619</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44528</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44437</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44346</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44164</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44066</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43975</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43884</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43793</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43702</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43611</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43520</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43429</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43338</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43247</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43156</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43065</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42974</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42883</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,126 +2834,130 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>498900</v>
+      </c>
+      <c r="E41" s="3">
         <v>601900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>678300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>810300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1376600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1224100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1973600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1497200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1353000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1448200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>873600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>934200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>863800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>860900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>621900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>713100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>612500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>698700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>590200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>633600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>491300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>437500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E42" s="3">
         <v>96400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>98800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>91600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>95500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>94500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>94300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>96500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>76100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>84000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>80700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>80200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>79700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>100000</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2875,8 +2965,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2890,292 +2980,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>660400</v>
+      </c>
+      <c r="E43" s="3">
         <v>609200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>648200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>707600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>667300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>579900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>540200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>543300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>333600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>710000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>782800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>722000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>574400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>633500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>534200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>487200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>342300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>428500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>485500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>446700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>309400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1292300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1112800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1006200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>898000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>902300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>863400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>835400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>817700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>944300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>986200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>854700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>884200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>935600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>895300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>914300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>883800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>938300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>842600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>826400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>759400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>826100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>780600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E45" s="3">
         <v>222100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>181500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>202500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>189300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>208200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>192100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>174600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>169000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>208200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>222800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>188200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>212100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>196800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>177500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>157000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>158000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>120700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>137900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>118700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>122800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>114100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2780000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2642400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2613000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2709900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3231000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2970000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3695600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3126200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3081900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3052400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2745000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2870200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2813700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2607100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2447300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2288100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2196000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2004400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1983100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1997200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1886900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1641600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3350,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1541000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1533300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1577600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1606300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1592700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1436100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1447000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1443300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1433400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1421000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1487200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>529600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>498900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>480500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>463800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>460600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>420000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>413200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>415000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>424500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>388700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>390500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>653000</v>
+      </c>
+      <c r="E49" s="3">
         <v>657300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>667800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>678200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>312300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>313900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>314300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>312200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>312300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>309000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>310300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>278600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>278400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>278500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>278900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>279100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>279300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>280100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>281600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>280200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>280100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>278900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>925200</v>
+      </c>
+      <c r="E52" s="3">
         <v>904800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>893300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>905700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>854800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>824600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>779300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>759500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>719700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>705600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>572800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>554100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>548000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>543200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>518300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>514900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>522300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>522400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>538700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>655900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>666300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>644200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5899200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5737800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5751800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5900100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5990800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5544700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6236200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5641200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5547300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5488000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5115200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4232400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4139000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3909400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3708400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3542700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3417700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3220100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3218300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3357800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3222000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2955200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>690300</v>
+      </c>
+      <c r="E57" s="3">
         <v>558700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>563000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>524800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>551500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>436500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>420600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>375500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>461500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>284400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>304200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>360300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>357700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>339500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>329900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>351300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>361700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>328800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>305200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>289500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>274500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>797300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>307900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>33400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>31600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1166900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1166000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1118800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1338900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1210000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1179500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1105800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1155800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1088700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>968000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>799300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>756700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>851000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>668900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>644500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>551800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>579700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>551100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>529500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>427500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1865600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1730600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1686000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1869600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1769000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1625200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2323700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1548900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1574200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1592400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1291500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1167200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1186000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1107700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1204400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1052200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1042000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>903700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>909800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>879100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>863200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>733600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>963500</v>
+      </c>
+      <c r="E61" s="3">
         <v>998500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1020500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1020700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1243300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1263800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1262700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1546700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1543300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1499000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>994400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1006700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1007000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1011100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1017700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1020200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1041800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1050400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1078700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1055400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1051200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1022300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1241100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1280300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1321600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1344100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1368500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1221600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1242800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1246200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1238500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1231400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1234500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>486900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>477600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>469300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>477300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>503600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>454600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>483500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>513200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>594000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>592400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>591500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4070200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4009400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4028200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4234400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4380900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4110600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4829200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4341800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4356000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4322800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3520400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2668900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2678300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2595900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2706700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2583400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2545800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2445700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2507800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2533900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2510800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2349800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1628300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1529300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1559300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1474900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1442500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1281400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1240800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1114300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1057400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1030500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1445200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1310500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1219100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1094700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1094600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1084300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1060200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>992400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>949300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1100900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1029300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>942400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1829000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1728300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1723600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1665700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1609900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1434000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1407000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1299500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1191300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1165200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1594800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1563500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1460700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1313500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1001600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>959300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>871900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>774400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>710500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>823900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>711100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>605400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44801</v>
+      </c>
+      <c r="E80" s="2">
         <v>44710</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44619</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44528</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44437</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44346</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44164</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44066</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43975</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43884</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43793</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43702</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43611</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43520</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43429</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43338</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43247</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43156</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43065</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42974</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42883</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E81" s="3">
         <v>49700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>195800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>153000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>193300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>64700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>142500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>56700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-363500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>152700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>95300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>124500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>146600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>97100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>130100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>74900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-19000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>115800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>88000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E83" s="3">
         <v>38800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>31800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>28400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E89" s="3">
         <v>59700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>86100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>238400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>250800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>178500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>69500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>228700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>199500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-156500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>197900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>206700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>43700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>106000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>55800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>215600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-22800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>161400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>66200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>231500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>77400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>168000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-51100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-43000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-78200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-444100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-119300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-80200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-48800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6485,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-39700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-39900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-32200</v>
       </c>
       <c r="G96" s="3">
         <v>-32200</v>
       </c>
       <c r="H96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-24100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-16000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-31700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-31900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-58900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-55000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-45000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-45000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-35000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-77700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-139400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-351300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-36500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-892800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>439700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-287100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>727600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-138000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-91800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>198800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-67700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-52500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-73900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-39300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-70000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-76400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-131900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-566500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>152400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-749500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>476400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>144200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-95500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>575000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>70500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>238900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-91200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-86200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>108500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-43400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>142300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>53800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>68900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44892</v>
+      </c>
+      <c r="E7" s="2">
         <v>44801</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44710</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44619</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44528</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44437</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44346</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44164</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44066</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43975</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43884</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43793</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43702</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43611</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43520</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43429</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43338</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43247</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43156</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43065</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42974</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42883</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1588700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1517200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1471100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1591600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1684800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1497600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1276000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1305600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1385900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1063100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>497500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1506100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1568600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1447100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1312900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1434500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1591900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1394200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1245700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1343700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1465800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1268400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1067900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>701500</v>
+      </c>
+      <c r="E9" s="3">
         <v>654300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>616100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>648000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>710500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>635400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>525800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>545600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>619300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>485700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>327900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>666800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>717200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>680300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>612500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>651700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>744400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>652600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>574900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>605600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>682600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>611800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>509500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>887200</v>
+      </c>
+      <c r="E10" s="3">
         <v>862900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>855000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>943600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>974300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>862200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>750200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>760000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>766600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>577400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>169600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>839300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>851400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>766800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>782900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>847500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>741600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>670800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>738100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>783200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>656600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>558400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>52200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>155400</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>24900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>22800</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1451800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1318000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1395000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1344800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1504600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1281300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1199600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1128500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1308600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>970800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>945800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1327300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1437000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1275900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1274900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1233500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1463100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1234700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1168500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1169600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1315900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1122100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1028000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E18" s="3">
         <v>199200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>246800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>180200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>216300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>177100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-448300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>178800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>131600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>171200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>201000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>128800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>159500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>77200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>174100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>149900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>146300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>39900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-18100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E21" s="3">
         <v>234100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>121000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>289100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>216000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>256800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>110100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>213500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>114600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-411900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>217500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>170200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>71400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>227800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>173100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>183000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>122100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>197300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>187000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>161400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>50200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>17900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E23" s="3">
         <v>186300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>77800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>245900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>166800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>203000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>55700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>154700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-458200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>164800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>118200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>151600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>181700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>135400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>139900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>75700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>149000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>139000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>117100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E24" s="3">
         <v>13300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>50000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-94600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>31700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-13800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E26" s="3">
         <v>173000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>195800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>153000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>193300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>64700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>142500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-363500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>152700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>95800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>124200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>146500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>123200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>77000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>117400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>117200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>89500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E27" s="3">
         <v>173000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>49700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>195800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>153000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>193300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>64700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>142500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-363500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>152700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>95300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>124500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>146600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>123700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>74900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>117000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>115800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>88000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>17500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2214,8 +2274,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2232,20 +2292,20 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>6400</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E32" s="3">
         <v>5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>14700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>18100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E33" s="3">
         <v>173000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>49700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>195800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>153000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>193300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>64700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>142500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-363500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>152700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>95300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>124500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>146600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>97100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>130100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>74900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-19000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>115800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>88000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E35" s="3">
         <v>173000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>49700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>195800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>153000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>193300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>64700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>142500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-363500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>152700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>95300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>124500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>146600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>97100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>130100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>74900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-19000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>115800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>88000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44892</v>
+      </c>
+      <c r="E38" s="2">
         <v>44801</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44710</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44619</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44528</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44437</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44346</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44164</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44066</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43975</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43884</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43793</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43702</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43611</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43520</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43429</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43338</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43247</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43156</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43065</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42974</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42883</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,132 +2920,136 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>429600</v>
+      </c>
+      <c r="E41" s="3">
         <v>498900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>601900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>678300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>810300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1376600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1224100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1973600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1497200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1353000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1448200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>873600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>934200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>863800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>860900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>621900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>713100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>612500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>698700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>590200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>633600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>491300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>437500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E42" s="3">
         <v>100500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>98800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>91600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>95500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>94500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>94300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>96500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>76100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>84000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>80700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>80200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>79700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>100000</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -2968,8 +3057,8 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2983,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>697000</v>
+      </c>
+      <c r="E43" s="3">
         <v>660400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>609200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>648200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>707600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>667300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>579900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>540200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>543300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>333600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>710000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>782800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>722000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>574400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>633500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>534200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>487200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>342300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>428500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>485500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>446700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>309400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1416800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1292300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1112800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1006200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>898000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>902300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>863400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>835400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>817700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>944300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>986200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>854700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>884200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>935600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>895300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>914300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>883800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>938300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>842600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>826400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>759400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>826100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>780600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>213900</v>
+      </c>
+      <c r="E45" s="3">
         <v>227900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>222100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>181500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>202500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>189300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>208200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>192100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>174600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>169000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>208200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>222800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>188200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>212100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>196800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>177500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>157000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>158000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>120700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>137900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>118700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>122800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>114100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2827900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2780000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2642400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2613000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2709900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3231000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2970000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3695600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3126200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3081900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3052400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2745000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2870200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2813700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2607100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2447300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2288100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2196000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2004400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1983100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1997200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1886900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1641600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1592800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1541000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1533300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1577600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1606300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1592700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1436100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1447000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1443300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1433400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1421000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1487200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>529600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>498900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>480500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>463800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>460600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>420000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>413200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>415000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>424500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>388700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>390500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>652400</v>
+      </c>
+      <c r="E49" s="3">
         <v>653000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>657300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>667800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>678200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>312300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>313900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>314300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>312200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>312300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>309000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>310300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>278600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>278400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>278500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>278900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>279100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>279300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>280100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>281600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>280200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>280100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>278900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>964700</v>
+      </c>
+      <c r="E52" s="3">
         <v>925200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>904800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>893300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>905700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>854800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>824600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>779300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>759500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>719700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>705600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>572800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>554100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>548000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>543200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>518300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>514900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>522300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>522400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>538700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>655900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>666300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>644200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6037800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5899200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5737800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5751800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5900100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5990800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5544700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6236200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5641200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5547300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5488000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5115200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4232400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4139000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3909400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3708400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3542700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3417700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3220100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3218300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3357800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3222000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2955200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>657200</v>
+      </c>
+      <c r="E57" s="3">
         <v>690300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>558700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>563000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>524800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>551500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>436500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>420600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>375500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>461500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>284400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>304200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>360300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>357700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>339500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>329900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>351300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>361700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>328800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>305200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>289500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>274500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E58" s="3">
         <v>8300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>797300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>307900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>35800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>24900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>38500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>33400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>31600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1312700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1166900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1166000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1118800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1338900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1210000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1179500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1105800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1155800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1088700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>968000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>799300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>756700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>851000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>668900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>644500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>551800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>579700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>551100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>529500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>427500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1981600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1865600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1730600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1686000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1869600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1769000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1625200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2323700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1548900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1574200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1592400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1291500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1167200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1186000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1107700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1204400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1052200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1042000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>903700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>909800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>879100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>863200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>733600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>984500</v>
+      </c>
+      <c r="E61" s="3">
         <v>963500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>998500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1020500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1020700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1243300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1263800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1262700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1546700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1543300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1499000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>994400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1006700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1007000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1011100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1017700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1020200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1041800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1050400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1078700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1055400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1051200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1022300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1241100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1280300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1321600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1344100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1368500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1221600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1242800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1246200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1238500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1231400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1234500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>486900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>477600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>469300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>477300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>503600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>454600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>483500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>513200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>594000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>592400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>591500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4134100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4070200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4009400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4028200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4234400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4380900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4110600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4829200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4341800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4356000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4322800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3520400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2668900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2678300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2595900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2706700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2583400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2545800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2445700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2507800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2533900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2510800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2349800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1699400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1628300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1529300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1559300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1474900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1442500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1281400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1240800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1114300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1057400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1030500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1445200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1310500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1219100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1094700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1094600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1084300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1060200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>992400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>949300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1100900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1029300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>942400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1903700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1829000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1728300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1723600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1665700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1609900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1434000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1407000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1299500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1191300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1165200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1594800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1563500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1460700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1313500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1001600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>959300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>871900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>774400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>710500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>823900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>711100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>605400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44892</v>
+      </c>
+      <c r="E80" s="2">
         <v>44801</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44710</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44619</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44528</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44437</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44346</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44164</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44066</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43975</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43884</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43793</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43702</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43611</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43520</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43429</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43338</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43247</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43156</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43065</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42974</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42883</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E81" s="3">
         <v>173000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>49700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>195800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>153000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>193300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>64700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>142500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-363500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>152700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>95300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>124500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>146600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>97100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>130100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>74900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-19000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>115800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>88000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E83" s="3">
         <v>40200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>38900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>31800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>28400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E89" s="3">
         <v>64400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>59700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>86100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>238400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>250800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>178500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>69500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>228700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>199500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-156500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>197900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>206700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>43700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>106000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>55800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>215600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-22800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>161400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>66200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>231500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>77400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>168000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-76300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-44400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-31000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-43000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-27800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-91900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-444100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-119300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-63000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-80200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-59700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-48800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-47500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-39700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-39900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-32200</v>
       </c>
       <c r="H96" s="3">
         <v>-32200</v>
       </c>
       <c r="I96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-24100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-31700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-31900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-58900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-55000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-45000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-45000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-35000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-70600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-77700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-139400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-351300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-892800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>439700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-287100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>727600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-138000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-91800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>198800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-67700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-52500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-73900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-39300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-70000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-103000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-76400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-131900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-566500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>152400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-749500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>476400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>144200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-95500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>575000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-60700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>70500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>238900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-91200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-86200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>108500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-43400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>142300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>53800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>68900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44983</v>
+      </c>
+      <c r="E7" s="2">
         <v>44892</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44801</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44710</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44619</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44528</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44437</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44346</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44164</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44066</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43975</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43884</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43793</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43702</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43611</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43520</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43429</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43338</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43247</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43156</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43065</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42974</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42883</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1688900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1588700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1517200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1471100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1591600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1684800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1497600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1276000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1305600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1385900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1063100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>497500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1506100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1568600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1447100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1312900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1434500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1591900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1394200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1245700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1343700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1465800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1268400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1067900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>746600</v>
+      </c>
+      <c r="E9" s="3">
         <v>701500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>654300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>616100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>648000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>710500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>635400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>525800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>545600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>619300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>485700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>327900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>666800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>717200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>680300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>612500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>651700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>744400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>652600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>574900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>605600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>682600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>611800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>509500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>942300</v>
+      </c>
+      <c r="E10" s="3">
         <v>887200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>862900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>855000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>943600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>974300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>862200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>750200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>760000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>766600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>577400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>839300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>851400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>766800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>782900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>847500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>741600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>670800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>738100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>783200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>656600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>558400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E14" s="3">
         <v>8400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>155400</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>24900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>22800</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1531500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1451800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1318000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1395000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1344800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1504600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1281300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1199600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1128500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1308600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>970800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>945800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1327300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1437000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1275900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1274900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1233500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1463100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1234700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1168500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1169600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1315900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1122100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1028000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E18" s="3">
         <v>136900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>199200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>76100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>246800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>180200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>216300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>76400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>177100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-448300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>178800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>131600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>171200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>201000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>128800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>159500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>174100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>149900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>146300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>39900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>12100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-9600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-14700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>189500</v>
+      </c>
+      <c r="E21" s="3">
         <v>190000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>234100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>121000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>289100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>216000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>256800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>110100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>213500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>114000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-411900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>217500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>170200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>198400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>227800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>173100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>183000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>122100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>197300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>187000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>161400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>50200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E22" s="3">
         <v>9400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>17900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E23" s="3">
         <v>139600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>186300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>77800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>245900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>166800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>203000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>154700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-458200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>164800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>118200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>151600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>181700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>135400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>139900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>75700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>149000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>139000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>117100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>50000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-94600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>31700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>27600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E26" s="3">
         <v>150600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>173000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>195800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>153000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>193300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>64700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>142500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-363500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>152700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>95800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>124200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>146500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>123200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>77000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>117400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>117200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>89500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>17700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E27" s="3">
         <v>150600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>173000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>49700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>195800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>153000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>193300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>64700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>142500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-363500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>152700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>95300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>124500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>146600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>123700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>74900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>117000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>115800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>88000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>17500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2338,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2295,20 +2356,20 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>6400</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>9600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>14700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>18100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E33" s="3">
         <v>150600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>173000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>49700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>195800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>153000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>193300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>64700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-363500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>152700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>95300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>124500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>146600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>97100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>130100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>74900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-19000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>115800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>88000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E35" s="3">
         <v>150600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>173000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>49700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>195800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>153000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>193300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>64700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-363500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>152700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>95300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>124500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>146600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>97100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>130100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>74900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-19000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>115800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>88000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44983</v>
+      </c>
+      <c r="E38" s="2">
         <v>44892</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44801</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44710</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44619</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44528</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44437</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44346</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44164</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44066</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43975</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43884</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43793</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43702</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43611</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43520</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43429</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43338</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43247</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43156</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43065</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42974</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42883</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,138 +3007,142 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>321800</v>
+      </c>
+      <c r="E41" s="3">
         <v>429600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>498900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>601900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>678300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>810300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1376600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1224100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1973600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1497200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1353000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1448200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>873600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>934200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>863800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>860900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>621900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>713100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>612500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>698700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>590200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>633600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>491300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>437500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>70600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>100500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>96400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>98800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>91600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>95500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>94500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>94300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>96500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>76100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>84000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>80700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>80200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>79700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>100000</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
@@ -3060,8 +3150,8 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3075,316 +3165,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>768700</v>
+      </c>
+      <c r="E43" s="3">
         <v>697000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>660400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>609200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>648200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>707600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>667300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>579900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>540200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>543300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>333600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>710000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>782800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>722000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>574400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>633500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>534200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>487200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>342300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>428500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>485500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>446700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>309400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1335200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1416800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1292300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1112800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1006200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>898000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>902300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>863400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>835400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>817700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>944300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>986200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>854700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>884200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>935600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>895300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>914300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>883800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>938300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>842600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>826400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>759400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>826100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>780600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>223200</v>
+      </c>
+      <c r="E45" s="3">
         <v>213900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>227900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>222100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>181500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>202500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>189300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>208200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>192100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>174600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>169000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>208200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>222800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>188200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>212100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>196800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>177500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>157000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>158000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>120700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>137900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>118700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>122800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>114100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2648900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2827900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2780000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2642400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2613000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2709900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3231000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2970000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3695600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3126200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3081900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3052400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2745000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2870200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2813700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2607100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2447300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2288100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2196000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2004400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1983100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1997200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1886900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1641600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1580200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1592800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1541000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1533300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1577600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1606300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1592700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1436100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1447000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1443300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1433400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1421000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1487200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>529600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>498900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>480500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>463800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>460600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>420000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>413200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>415000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>424500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>388700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>390500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>655200</v>
+      </c>
+      <c r="E49" s="3">
         <v>652400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>653000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>657300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>667800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>678200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>312300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>313900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>314300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>312200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>312300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>309000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>310300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>278600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>278400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>278500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>278900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>279100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>279300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>280100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>281600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>280200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>280100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>278900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>989600</v>
+      </c>
+      <c r="E52" s="3">
         <v>964700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>925200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>904800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>893300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>905700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>854800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>824600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>779300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>759500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>719700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>705600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>572800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>554100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>548000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>543200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>518300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>514900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>522300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>522400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>538700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>655900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>666300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>644200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5873900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6037800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5899200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5737800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5751800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5900100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5990800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5544700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6236200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5641200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5547300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5488000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5115200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4232400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4139000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3909400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3708400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3542700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3417700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3220100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3218300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3357800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3222000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2955200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>475400</v>
+      </c>
+      <c r="E57" s="3">
         <v>657200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>690300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>558700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>563000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>524800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>551500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>436500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>420600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>375500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>461500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>284400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>304200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>360300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>357700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>339500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>329900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>351300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>361700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>328800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>305200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>289500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>274500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>797300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>307900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>35800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>24900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>38500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>33400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>31600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1136800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1312700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1166900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1166000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1118800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1338900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1210000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1179500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1105800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1155800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1088700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>968000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>799300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>756700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>851000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>668900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>644500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>551800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>579700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>551100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>529500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>427500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1774200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1981600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1865600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1730600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1686000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1869600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1769000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1625200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2323700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1548900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1574200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1592400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1291500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1167200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1186000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1107700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1204400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1052200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1042000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>903700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>909800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>879100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>863200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>733600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>993600</v>
+      </c>
+      <c r="E61" s="3">
         <v>984500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>963500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>998500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1020500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1020700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1243300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1263800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1262700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1546700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1543300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1499000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>994400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1006700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1007000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1011100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1017700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1020200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1041800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1050400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1078700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1055400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1051200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1022300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1138600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1168000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1241100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1280300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1321600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1344100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1368500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1221600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1242800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1246200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1238500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1231400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1234500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>486900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>477600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>469300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>477300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>503600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>454600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>483500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>513200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>594000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>592400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>591500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3906400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4134100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4070200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4009400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4028200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4234400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4380900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4110600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4829200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4341800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4356000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4322800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3520400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2668900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2678300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2595900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2706700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2583400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2545800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2445700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2507800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2533900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2510800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2349800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1758400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1699400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1628300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1529300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1559300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1474900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1442500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1281400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1240800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1114300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1057400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1030500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1445200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1310500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1219100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1094700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1094600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1084300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1060200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>992400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>949300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1100900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1029300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>942400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1967500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1903700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1829000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1728300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1723600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1665700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1609900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1434000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1407000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1299500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1191300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1165200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1594800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1563500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1460700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1313500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1001600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>959300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>871900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>774400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>710500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>823900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>711100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>605400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44983</v>
+      </c>
+      <c r="E80" s="2">
         <v>44892</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44801</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44710</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44619</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44528</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44437</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44346</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44164</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44066</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43975</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43884</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43793</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43702</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43611</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43520</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43429</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43338</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43247</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43156</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43065</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42974</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42883</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E81" s="3">
         <v>150600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>173000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>49700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>195800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>153000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>193300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>64700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-363500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>152700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>95300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>124500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>146600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>97100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>130100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>74900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-19000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>115800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>88000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E83" s="3">
         <v>41000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>38800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>38900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>31900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>31800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>29800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>28400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-160800</v>
+      </c>
+      <c r="E89" s="3">
         <v>17800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>64400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>59700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>86100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>238400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>250800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>178500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>69500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>228700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>199500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-156500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>197900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>206700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>106000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>55800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>215600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-22800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>161400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>66200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>231500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>77400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>168000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-110900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-51100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-31000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-27800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-91900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-78200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-444100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-57300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-119300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-63000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-80200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-59700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-40400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-38000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-48800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-26800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-47300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-47500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-39700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-39900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-32200</v>
       </c>
       <c r="I96" s="3">
         <v>-32200</v>
       </c>
       <c r="J96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-24100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-31700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-31900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-55000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-45000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-45000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-77700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-70600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-77700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-139400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-351300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-892800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>439700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-287100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>727600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-138000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-91800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>198800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-67700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-52500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-73900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-39300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-70000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-69200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-103000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-76400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-131900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-566500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>152400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-749500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>476400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>144200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-95500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>575000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-60700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>70500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>238900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-91200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-86200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>108500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-43400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>142300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>53800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>68900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45074</v>
+      </c>
+      <c r="E7" s="2">
         <v>44983</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44892</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44801</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44710</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44619</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44528</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44437</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44346</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44164</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44066</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43975</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43884</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43793</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43702</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43611</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43520</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43429</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43338</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43247</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43156</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43065</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42974</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42883</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1336800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1688900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1588700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1517200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1471100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1591600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1684800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1497600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1276000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1305600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1385900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1063100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>497500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1506100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1568600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1447100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1312900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1434500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1591900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1394200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1245700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1343700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1465800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1268400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1067900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>552600</v>
+      </c>
+      <c r="E9" s="3">
         <v>746600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>701500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>654300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>616100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>648000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>710500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>635400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>525800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>545600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>619300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>485700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>327900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>666800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>717200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>680300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>612500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>651700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>744400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>652600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>574900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>605600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>682600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>611800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>509500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>784200</v>
+      </c>
+      <c r="E10" s="3">
         <v>942300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>887200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>862900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>855000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>943600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>974300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>862200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>750200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>760000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>766600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>577400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>169600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>839300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>851400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>766800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>782900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>847500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>741600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>670800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>738100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>783200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>656600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>558400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1223,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E14" s="3">
         <v>12700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>52200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-8400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>35600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>155400</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>24900</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>22800</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1326900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1531500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1451800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1318000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1395000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1344800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1504600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1281300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1199600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1128500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1308600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>970800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>945800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1327300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1437000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1275900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1274900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1233500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1463100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1234700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1168500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1169600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1315900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1122100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1028000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E18" s="3">
         <v>157400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>136900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>199200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>76100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>246800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>180200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>216300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>177100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-448300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>178800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>131600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>171200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>38000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>201000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>128800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>159500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>77200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>174100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>149900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>146300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>39900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1616,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-14700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-18100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E21" s="3">
         <v>189500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>190000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>234100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>121000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>289100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>216000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>256800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>213500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>114600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-411900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>217500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>170200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>198400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>71400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>227800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>173100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>183000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>122100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>197300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>187000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>161400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>50200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E22" s="3">
         <v>10700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>15500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>17900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>139200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>139600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>186300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>77800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>245900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>166800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>203000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>154700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-458200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>164800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>118200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>151600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>181700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>135400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>139900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>75700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>149000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>139000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>117100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>24500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-94600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>34600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>31700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>27600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-13800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>114700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>150600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>173000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>49700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>195800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>153000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>193300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>142500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-363500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>152700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>95800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>124200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>146500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>123200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>77000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>117400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>117200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>89500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>17700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>114700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>150600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>173000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>49700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>195800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>153000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>193300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>64700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>142500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-363500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>152700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>95300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>124500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>146600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>123700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>74900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>117000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>115800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>88000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>17500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2341,8 +2402,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2359,20 +2420,20 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>6400</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>9600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>14700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>18100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>114700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>150600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>173000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>49700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>195800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>153000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>193300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-363500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>152700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>95300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>124500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>146600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>97100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>130100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>74900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>115800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>88000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>17500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>114700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>150600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>173000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>49700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>195800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>153000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>193300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-363500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>152700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>95300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>124500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>146600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>97100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>130100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>74900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>115800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>88000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>17500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45074</v>
+      </c>
+      <c r="E38" s="2">
         <v>44983</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44892</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44801</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44710</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44619</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44528</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44437</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44346</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44164</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44066</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43975</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43884</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43793</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43702</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43611</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43520</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43429</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43338</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43247</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43156</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43065</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42974</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42883</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>471600</v>
+      </c>
+      <c r="E41" s="3">
         <v>321800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>429600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>498900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>601900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>678300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>810300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1376600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1224100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1973600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1497200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1353000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1448200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>873600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>934200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>863800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>860900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>621900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>713100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>612500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>698700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>590200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>633600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>491300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>437500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3097,55 +3187,55 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>70600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>100500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>96400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>98800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>91600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>95500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>94500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>94300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>96500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>76100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>84000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>80700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>80200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>79700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>100000</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -3153,8 +3243,8 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3168,328 +3258,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>560700</v>
+      </c>
+      <c r="E43" s="3">
         <v>768700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>697000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>660400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>609200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>648200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>707600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>667300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>579900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>540200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>543300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>333600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>710000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>782800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>722000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>574400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>633500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>534200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>487200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>342300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>428500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>485500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>446700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>309400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1313500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1335200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1416800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1292300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1112800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1006200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>898000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>902300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>863400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>835400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>817700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>944300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>986200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>854700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>884200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>935600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>895300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>914300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>883800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>938300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>842600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>826400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>759400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>826100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>780600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>198400</v>
+      </c>
+      <c r="E45" s="3">
         <v>223200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>213900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>227900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>222100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>181500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>202500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>189300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>208200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>192100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>174600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>169000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>208200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>222800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>188200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>212100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>196800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>177500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>157000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>158000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>120700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>137900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>118700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>122800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>114100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2544200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2648900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2827900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2780000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2642400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2613000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2709900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3231000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2970000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3695600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3126200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3081900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3052400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2745000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2870200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2813700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2607100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2447300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2288100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2196000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2004400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1983100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1997200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1886900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1641600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,168 +3673,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1638200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1580200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1592800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1541000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1533300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1577600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1606300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1592700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1436100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1447000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1443300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1433400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1421000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1487200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>529600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>498900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>480500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>463800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>460600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>420000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>413200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>415000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>424500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>388700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>390500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E49" s="3">
         <v>655200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>652400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>653000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>657300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>667800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>678200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>312300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>313900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>314300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>312200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>312300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>309000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>310300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>278600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>278400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>278500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>278900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>279100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>279300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>280100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>281600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>280200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>280100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>278900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1051400</v>
+      </c>
+      <c r="E52" s="3">
         <v>989600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>964700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>925200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>904800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>893300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>905700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>854800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>824600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>779300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>759500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>719700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>705600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>572800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>554100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>548000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>543200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>518300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>514900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>522300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>522400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>538700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>655900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>666300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>644200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5891800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5873900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6037800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5899200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5737800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5751800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5900100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5990800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5544700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6236200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5641200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5547300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5488000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5115200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4232400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4139000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3909400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3708400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3542700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3417700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3220100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3218300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3357800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3222000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2955200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4318,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>464200</v>
+      </c>
+      <c r="E57" s="3">
         <v>475400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>657200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>690300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>558700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>563000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>524800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>551500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>436500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>420600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>375500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>461500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>284400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>304200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>360300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>357700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>339500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>329900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>351300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>361700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>328800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>305200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>289500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>274500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E58" s="3">
         <v>162000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>797300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>307900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>35800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>24900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>38500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>33400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>31600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1197800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1136800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1312700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1166900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1166000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1118800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1338900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1210000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1179500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1105800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1155800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1088700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>968000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>799300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>756700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>851000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>668900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>644500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>551800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>579700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>551100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>529500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>427500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1798400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1774200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1981600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1865600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1730600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1686000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1869600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1769000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1625200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2323700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1548900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1574200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1592400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1291500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1167200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1186000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1107700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1204400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1052200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1042000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>903700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>909800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>879100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>863200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>733600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000200</v>
+      </c>
+      <c r="E61" s="3">
         <v>993600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>984500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>963500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>998500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1020500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1020700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1243300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1263800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1262700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1546700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1543300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1499000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>994400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1006700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1007000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1011100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1017700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1020200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1041800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1050400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1078700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1055400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1051200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1022300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1155500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1138600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1168000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1241100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1280300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1321600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1344100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1368500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1221600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1242800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1246200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1238500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1231400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1234500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>486900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>477600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>469300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>477300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>503600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>454600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>483500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>513200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>594000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>592400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>591500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3954100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3906400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4134100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4070200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4009400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4028200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4234400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4380900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4110600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4829200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4341800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4356000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4322800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3520400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2668900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2678300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2595900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2706700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2583400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2545800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2445700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2507800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2533900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2510800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2349800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1709100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1758400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1699400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1628300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1529300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1559300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1474900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1442500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1281400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1240800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1114300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1057400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1030500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1445200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1310500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1219100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1094700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1094600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1084300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1060200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>992400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>949300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1100900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1029300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>942400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1937700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1967500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1903700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1829000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1728300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1723600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1665700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1609900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1434000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1407000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1299500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1191300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1165200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1594800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1563500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1460700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1313500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1001600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>959300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>871900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>774400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>710500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>823900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>711100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>605400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45074</v>
+      </c>
+      <c r="E80" s="2">
         <v>44983</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44892</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44801</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44710</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44619</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44528</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44437</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44346</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44164</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44066</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43975</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43884</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43793</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43702</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43611</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43520</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43429</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43338</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43247</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43156</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43065</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42974</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42883</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>114700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>150600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>173000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>49700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>195800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>153000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>193300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-363500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>152700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>95300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>124500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>146600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>97100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>130100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>74900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>115800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>88000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>17500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E83" s="3">
         <v>39600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>38800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>38900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>31900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>31800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>29800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>28400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>286200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-160800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>64400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>59700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>86100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>238400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>250800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>178500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>69500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>228700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>199500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-156500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>197900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>206700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>43700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>106000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>55800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>215600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-22800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>161400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>66200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>231500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>77400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>168000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-110900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-70300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-51100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-43000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-22900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-27800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-91900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-78200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-444100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-70800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-119300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-63000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-80200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-59700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-40400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-38000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-48800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,79 +7196,82 @@
         <v>-47600</v>
       </c>
       <c r="E96" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-47300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-47500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-39700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-39900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-32200</v>
       </c>
       <c r="J96" s="3">
         <v>-32200</v>
       </c>
       <c r="K96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-24100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-31700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-58900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-55000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-45000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-35000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E100" s="3">
         <v>77800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-77700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-70600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-77700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-139400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-351300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-36500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-892800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>439700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-287100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>727600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-138000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-91800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>198800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-67700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-52500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-73900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-39300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-70000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-9000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-107800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-69200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-103000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-76400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-131900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-566500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>152400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-749500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>476400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>144200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-95500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>575000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-60700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>70500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>238900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-91200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-86200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>108500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-43400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>142300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>53800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>68900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-6900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LEVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>LEVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45165</v>
+      </c>
+      <c r="E7" s="2">
         <v>45074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44983</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44892</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44801</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44710</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44619</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44528</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44437</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44346</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44164</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44066</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43975</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43884</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43793</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43702</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43611</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43520</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43429</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43338</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43247</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43156</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43065</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42974</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42883</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1511000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1336800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1688900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1588700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1517200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1471100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1591600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1684800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1497600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1276000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1305600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1385900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1063100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>497500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1506100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1568600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1447100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1312900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1434500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1591900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1394200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1245700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1343700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1465800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1268400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1067900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>671500</v>
+      </c>
+      <c r="E9" s="3">
         <v>552600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>746600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>701500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>654300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>616100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>648000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>710500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>635400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>525800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>545600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>619300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>485700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>327900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>666800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>717200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>680300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>612500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>651700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>744400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>652600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>574900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>605600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>682600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>611800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>509500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>537400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>839500</v>
+      </c>
+      <c r="E10" s="3">
         <v>784200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>942300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>887200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>862900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>855000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>943600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>974300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>862200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>750200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>760000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>766600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>577400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>169600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>839300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>851400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>766800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>782900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>847500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>741600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>670800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>738100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>783200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>656600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>558400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,91 +1243,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>52200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-8400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>35600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-5500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>155400</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>24900</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>22800</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1495200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1326900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1531500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1451800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1318000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1395000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1344800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1504600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1281300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1199600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1128500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1308600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>970800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>945800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1327300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1437000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1275900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1274900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1233500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1463100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1234700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1168500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1169600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1315900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1122100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1028000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>993700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E18" s="3">
         <v>9900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>157400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>136900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>199200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>246800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>180200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>216300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>177100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-448300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>178800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>131600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>171200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>38000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>201000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>128800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>159500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>77200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>174100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>149900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>146300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>39900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,423 +1650,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>12900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-14700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-18100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E21" s="3">
         <v>45800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>189500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>190000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>234100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>121000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>289100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>216000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>256800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>213500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>114000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-411900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>217500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>170200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>198400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>71400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>227800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>173100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>183000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>122100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>197300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>187000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>161400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>50200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E22" s="3">
         <v>13200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>15500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>16300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>17900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>139200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>139600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>186300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>77800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>245900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>166800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>203000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>154700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-458200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>164800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>151600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>26100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>181700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>135400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>139900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>75700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>149000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>139000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>117100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>50000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-94600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>34600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>31700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>27600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-13800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>114700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>150600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>173000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>49700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>195800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>153000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>193300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>142500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-363500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>152700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>95800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>124200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>146500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>123200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>77000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>117400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>117200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>89500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>17700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>114700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>150600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>173000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>49700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>195800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>153000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>193300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>64700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>142500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-363500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>152700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>95300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>124500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>146600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>123700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>74900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>117000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>115800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>88000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>17500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,8 +2466,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2423,20 +2484,20 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-3500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>6400</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-136000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E32" s="3">
         <v>3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>14700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>18100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>114700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>150600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>173000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>195800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>153000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>193300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-363500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>152700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>95300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>124500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>28200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>146600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>97100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>130100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>74900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>115800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>88000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>17500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>114700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>150600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>173000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>195800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>153000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>193300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-363500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>152700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>95300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>124500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>28200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>146600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>97100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>130100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>74900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>115800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>88000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>17500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45165</v>
+      </c>
+      <c r="E38" s="2">
         <v>45074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44983</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44892</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44801</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44710</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44619</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44528</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44437</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44346</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44164</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44066</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43975</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43884</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43793</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43702</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43611</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43520</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43429</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43338</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43247</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43156</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43065</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42974</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42883</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>294500</v>
+      </c>
+      <c r="E41" s="3">
         <v>471600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>321800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>429600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>498900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>601900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>678300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>810300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1376600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1224100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1973600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1497200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1353000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1448200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>873600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>934200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>863800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>860900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>621900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>713100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>612500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>698700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>590200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>633600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>491300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>437500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>368600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3190,55 +3280,55 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>70600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>100500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>96400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>98800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>91600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>95500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>94500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>94300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>96500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>72300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>76100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>84000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>80700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>80200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>79700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>100000</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -3246,8 +3336,8 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3261,340 +3351,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>690200</v>
+      </c>
+      <c r="E43" s="3">
         <v>560700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>768700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>697000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>660400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>609200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>648200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>707600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>667300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>579900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>540200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>543300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>333600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>710000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>782800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>722000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>574400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>633500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>534200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>487200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>342300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>428500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>485500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>446700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>309400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>406700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1373800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1313500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1335200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1416800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1292300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1112800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1006200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>898000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>902300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>863400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>835400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>817700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>944300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>986200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>854700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>884200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>935600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>895300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>914300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>883800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>938300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>842600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>826400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>759400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>826100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>780600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>767200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E45" s="3">
         <v>198400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>223200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>213900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>227900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>222100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>181500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>202500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>189300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>208200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>192100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>174600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>169000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>208200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>222800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>188200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>212100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>196800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>177500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>157000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>158000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>120700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>137900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>118700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>122800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>114100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2565700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2544200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2648900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2827900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2780000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2642400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2613000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2709900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3231000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2970000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3695600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3126200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3081900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3052400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2745000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2870200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2813700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2607100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2447300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2288100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2196000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2004400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1983100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1997200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1886900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1641600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1659200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,174 +3781,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1626000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1638200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1580200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1592800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1541000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1533300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1577600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1606300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1592700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1436100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1447000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1443300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1433400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1421000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1487200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>529600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>498900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>480500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>463800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>460600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>420000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>413200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>415000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>424500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>388700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>390500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>380400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>569500</v>
+      </c>
+      <c r="E49" s="3">
         <v>658000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>655200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>652400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>653000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>657300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>667800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>678200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>312300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>313900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>314300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>312200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>312300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>309000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>310300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>278600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>278400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>278500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>278900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>279100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>279300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>280100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>281600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>280200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>280100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>278900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1113000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1051400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>989600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>964700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>925200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>904800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>893300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>905700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>854800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>824600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>779300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>759500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>719700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>705600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>572800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>554100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>548000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>543200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>518300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>514900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>522300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>522400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>538700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>655900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>666300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>644200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>613300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5874200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5891800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5873900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6037800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5899200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5737800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5751800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5900100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5990800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5544700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6236200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5641200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5547300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5488000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5115200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4232400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4139000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3909400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3708400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3542700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3417700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3220100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3218300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3357800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3222000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2955200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2930300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4449,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>573500</v>
+      </c>
+      <c r="E57" s="3">
         <v>464200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>475400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>657200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>690300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>558700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>563000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>524800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>551500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>436500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>420600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>375500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>461500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>284400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>304200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>360300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>357700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>339500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>329900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>351300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>361700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>328800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>305200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>289500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>274500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>256700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E58" s="3">
         <v>136400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>162000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>797300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>307900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>27600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>35800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>24900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>38500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>33400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>31600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1195100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1197800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1136800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1312700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1166900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1166000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1118800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1338900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1210000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1179500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1105800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1155800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1088700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>968000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>799300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>756700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>851000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>668900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>644500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>551800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>579700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>551100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>529500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>427500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>440900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1808100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1798400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1774200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1981600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1865600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1730600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1686000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1869600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1769000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1625200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2323700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1548900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1574200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1592400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1291500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1167200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1186000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1107700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1204400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1052200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1042000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>903700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>909800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>879100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>863200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>733600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>731800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1004600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>993600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>984500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>963500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>998500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1020500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1020700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1243300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1263800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1262700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1546700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1543300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1499000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>994400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1006700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1007000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1011100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1017700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1020200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1041800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1050400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1078700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1055400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1051200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1022300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1022100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1120100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1155500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1138600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1168000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1241100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1280300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1321600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1344100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1368500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1221600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1242800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1246200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1238500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1231400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1234500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>486900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>477600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>469300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>477300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>503600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>454600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>483500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>513200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>594000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>592400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>591500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>583300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3932800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3954100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3906400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4134100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4070200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4009400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4028200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4234400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4380900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4110600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4829200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4341800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4356000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4322800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3520400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2668900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2678300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2595900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2706700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2583400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2545800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2445700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2507800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2533900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2510800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2349800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2339400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1709100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1758400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1699400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1628300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1529300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1559300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1474900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1442500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1281400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1240800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1114300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1057400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1030500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1445200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1310500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1219100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1094700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1094600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1084300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1060200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>992400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>949300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1100900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1029300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>942400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>921900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1941400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1937700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1967500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1903700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1829000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1728300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1723600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1665700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1609900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1434000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1407000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1299500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1191300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1165200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1594800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1563500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1460700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1313500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1001600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>959300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>871900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>774400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>710500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>823900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>711100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>605400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45165</v>
+      </c>
+      <c r="E80" s="2">
         <v>45074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44983</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44892</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44801</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44710</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44619</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44528</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44437</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44346</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44164</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44066</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43975</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43884</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43793</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43702</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43611</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43520</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43429</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43338</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43247</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43156</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43065</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42974</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42883</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42792</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>114700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>150600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>173000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>195800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>153000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>193300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-363500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>152700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>95300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>124500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>28200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>146600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>97100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>130100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>74900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>115800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>88000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>17500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E83" s="3">
         <v>39800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>38800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>38900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>28100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>31900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>31800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>29800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>28400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E89" s="3">
         <v>286200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-160800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>64400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>86100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>238400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>250800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>178500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>69500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>228700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>199500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-156500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>197900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>206700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>43700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>106000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>55800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>215600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-22800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>161400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>66200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>231500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>77400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>168000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-75700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-110900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-70300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-76300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-44400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-51100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-43000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-22900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-27800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-25100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-91900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-444100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-119300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-55200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-63000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-80200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-59700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-40400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-41300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-48800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-26800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-32800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,91 +7420,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-47600</v>
+        <v>-47700</v>
       </c>
       <c r="E96" s="3">
         <v>-47600</v>
       </c>
       <c r="F96" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-47300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-47500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-39700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-39900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-32200</v>
       </c>
       <c r="K96" s="3">
         <v>-32200</v>
       </c>
       <c r="L96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="M96" s="3">
         <v>-24100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-31900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-58900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-55000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-45000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-35000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-35000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-71900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>77800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-77700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-70600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-77700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-139400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-351300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-36500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-892800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>439700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-287100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>727600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-138000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-91800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>198800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-67700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-52500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-73900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-39300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-70000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-177200</v>
+      </c>
+      <c r="E102" s="3">
         <v>149800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-107800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-69200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-103000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-76400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-131900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-566500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>152400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-749500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>476400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>144200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-95500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>575000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-60700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>70500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>238900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-91200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-86200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>108500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-43400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>142300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>53800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>68900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-6900</v>
       </c>
     </row>
